--- a/doc/novo formato das instruções.xlsx
+++ b/doc/novo formato das instruções.xlsx
@@ -16,6 +16,18 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="I14">
+      <text>
+        <t xml:space="preserve">Implementar como um addi rd, rs, 0
+	-Filipe Boaventura</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L35">
+      <text>
+        <t xml:space="preserve">Opcode estava conflitando com o addi
+	-Filipe Boaventura</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="I42">
       <text>
         <t xml:space="preserve">Pode ser implementado com um jr
@@ -69,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
   <si>
     <t>Tipo R</t>
   </si>
@@ -104,15 +116,15 @@
     <t>0x20</t>
   </si>
   <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
     <t>rd</t>
   </si>
   <si>
-    <t>rs</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
     <t>shift</t>
   </si>
   <si>
@@ -224,7 +236,7 @@
     <t>rd = !(rs &amp; rd)</t>
   </si>
   <si>
-    <t>0x2A</t>
+    <t>0x1B</t>
   </si>
   <si>
     <t>address</t>
@@ -302,6 +314,9 @@
     <t>[00100]</t>
   </si>
   <si>
+    <t>[00010]</t>
+  </si>
+  <si>
     <t>Resultado ALU negativo</t>
   </si>
   <si>
@@ -320,6 +335,9 @@
     <t>[00101]</t>
   </si>
   <si>
+    <t>[00000]</t>
+  </si>
+  <si>
     <t>Resultado ALU zero</t>
   </si>
   <si>
@@ -365,7 +383,7 @@
     <t>	0x2A</t>
   </si>
   <si>
-    <t>[00000]</t>
+    <t>[00001]</t>
   </si>
   <si>
     <t>Resultado ALU diferente de zero</t>
@@ -377,7 +395,7 @@
     <t>jr</t>
   </si>
   <si>
-    <t>pc = rs</t>
+    <t>pc = rd</t>
   </si>
   <si>
     <t>0x08</t>
@@ -471,6 +489,9 @@
   </si>
   <si>
     <t>lcl</t>
+  </si>
+  <si>
+    <t>0x01</t>
   </si>
   <si>
     <t>jt.cond</t>
@@ -559,7 +580,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +597,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -668,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -692,6 +719,9 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,6 +736,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
     <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
@@ -936,7 +969,7 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1004,7 +1037,7 @@
       <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1021,8 +1054,8 @@
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13">
       <c r="I13" s="3" t="s">
@@ -1079,7 +1112,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -1133,7 +1166,7 @@
       <c r="C18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="9" t="s">
         <v>66</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -1150,7 +1183,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="9" t="s">
         <v>69</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1167,14 +1200,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -1183,7 +1216,7 @@
       <c r="J20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="14" t="s">
         <v>75</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -1194,3334 +1227,3349 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>78</v>
       </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="I21" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="A22" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>84</v>
       </c>
+      <c r="C22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="I22" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="14" t="s">
         <v>75</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>89</v>
       </c>
+      <c r="B23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="I23" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>94</v>
       </c>
+      <c r="B24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="I24" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
+      <c r="A25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>100</v>
       </c>
+      <c r="C25" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="I25" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="C26" s="17" t="s">
         <v>107</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="I27" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="I28" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="I29" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="I30" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="I31" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="I32" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="I33" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="I34" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K34" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="K34" s="20"/>
       <c r="L34" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="I35" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K35" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="K35" s="20"/>
       <c r="L35" s="2" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="I36" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
       <c r="I37" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="I38" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="I39" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
       <c r="I40" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
       <c r="I41" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
       <c r="I42" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
       <c r="I43" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L43" s="18"/>
+        <v>155</v>
+      </c>
+      <c r="L43" s="20"/>
       <c r="M43" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
       <c r="I44" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
-      <c r="K45" s="9"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46">
-      <c r="K46" s="9"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47">
-      <c r="K47" s="9"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48">
-      <c r="K48" s="9"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49">
-      <c r="K49" s="9"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50">
-      <c r="K50" s="9"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51">
-      <c r="K51" s="9"/>
+      <c r="K51" s="10"/>
     </row>
     <row r="52">
-      <c r="K52" s="9"/>
+      <c r="K52" s="10"/>
     </row>
     <row r="53">
-      <c r="K53" s="9"/>
+      <c r="K53" s="10"/>
     </row>
     <row r="54">
-      <c r="K54" s="9"/>
+      <c r="K54" s="10"/>
     </row>
     <row r="55">
-      <c r="K55" s="9"/>
+      <c r="K55" s="10"/>
     </row>
     <row r="56">
-      <c r="K56" s="9"/>
+      <c r="K56" s="10"/>
     </row>
     <row r="57">
-      <c r="K57" s="9"/>
+      <c r="K57" s="10"/>
     </row>
     <row r="58">
-      <c r="K58" s="9"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="59">
-      <c r="K59" s="9"/>
+      <c r="K59" s="10"/>
     </row>
     <row r="60">
-      <c r="K60" s="9"/>
+      <c r="K60" s="10"/>
     </row>
     <row r="61">
-      <c r="K61" s="9"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62">
-      <c r="K62" s="9"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63">
-      <c r="K63" s="9"/>
+      <c r="K63" s="10"/>
     </row>
     <row r="64">
-      <c r="K64" s="9"/>
+      <c r="K64" s="10"/>
     </row>
     <row r="65">
-      <c r="K65" s="9"/>
+      <c r="K65" s="10"/>
     </row>
     <row r="66">
-      <c r="K66" s="9"/>
+      <c r="K66" s="10"/>
     </row>
     <row r="67">
-      <c r="K67" s="9"/>
+      <c r="K67" s="10"/>
     </row>
     <row r="68">
-      <c r="K68" s="9"/>
+      <c r="K68" s="10"/>
     </row>
     <row r="69">
-      <c r="K69" s="9"/>
+      <c r="K69" s="10"/>
     </row>
     <row r="70">
-      <c r="K70" s="9"/>
+      <c r="K70" s="10"/>
     </row>
     <row r="71">
-      <c r="K71" s="9"/>
+      <c r="K71" s="10"/>
     </row>
     <row r="72">
-      <c r="K72" s="9"/>
+      <c r="K72" s="10"/>
     </row>
     <row r="73">
-      <c r="K73" s="9"/>
+      <c r="K73" s="10"/>
     </row>
     <row r="74">
-      <c r="K74" s="9"/>
+      <c r="K74" s="10"/>
     </row>
     <row r="75">
-      <c r="K75" s="9"/>
+      <c r="K75" s="10"/>
     </row>
     <row r="76">
-      <c r="K76" s="9"/>
+      <c r="K76" s="10"/>
     </row>
     <row r="77">
-      <c r="K77" s="9"/>
+      <c r="K77" s="10"/>
     </row>
     <row r="78">
-      <c r="K78" s="9"/>
+      <c r="K78" s="10"/>
     </row>
     <row r="79">
-      <c r="K79" s="9"/>
+      <c r="K79" s="10"/>
     </row>
     <row r="80">
-      <c r="K80" s="9"/>
+      <c r="K80" s="10"/>
     </row>
     <row r="81">
-      <c r="K81" s="9"/>
+      <c r="K81" s="10"/>
     </row>
     <row r="82">
-      <c r="K82" s="9"/>
+      <c r="K82" s="10"/>
     </row>
     <row r="83">
-      <c r="K83" s="9"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="84">
-      <c r="K84" s="9"/>
+      <c r="K84" s="10"/>
     </row>
     <row r="85">
-      <c r="K85" s="9"/>
+      <c r="K85" s="10"/>
     </row>
     <row r="86">
-      <c r="K86" s="9"/>
+      <c r="K86" s="10"/>
     </row>
     <row r="87">
-      <c r="K87" s="9"/>
+      <c r="K87" s="10"/>
     </row>
     <row r="88">
-      <c r="K88" s="9"/>
+      <c r="K88" s="10"/>
     </row>
     <row r="89">
-      <c r="K89" s="9"/>
+      <c r="K89" s="10"/>
     </row>
     <row r="90">
-      <c r="K90" s="9"/>
+      <c r="K90" s="10"/>
     </row>
     <row r="91">
-      <c r="K91" s="9"/>
+      <c r="K91" s="10"/>
     </row>
     <row r="92">
-      <c r="K92" s="9"/>
+      <c r="K92" s="10"/>
     </row>
     <row r="93">
-      <c r="K93" s="9"/>
+      <c r="K93" s="10"/>
     </row>
     <row r="94">
-      <c r="K94" s="9"/>
+      <c r="K94" s="10"/>
     </row>
     <row r="95">
-      <c r="K95" s="9"/>
+      <c r="K95" s="10"/>
     </row>
     <row r="96">
-      <c r="K96" s="9"/>
+      <c r="K96" s="10"/>
     </row>
     <row r="97">
-      <c r="K97" s="9"/>
+      <c r="K97" s="10"/>
     </row>
     <row r="98">
-      <c r="K98" s="9"/>
+      <c r="K98" s="10"/>
     </row>
     <row r="99">
-      <c r="K99" s="9"/>
+      <c r="K99" s="10"/>
     </row>
     <row r="100">
-      <c r="K100" s="9"/>
+      <c r="K100" s="10"/>
     </row>
     <row r="101">
-      <c r="K101" s="9"/>
+      <c r="K101" s="10"/>
     </row>
     <row r="102">
-      <c r="K102" s="9"/>
+      <c r="K102" s="10"/>
     </row>
     <row r="103">
-      <c r="K103" s="9"/>
+      <c r="K103" s="10"/>
     </row>
     <row r="104">
-      <c r="K104" s="9"/>
+      <c r="K104" s="10"/>
     </row>
     <row r="105">
-      <c r="K105" s="9"/>
+      <c r="K105" s="10"/>
     </row>
     <row r="106">
-      <c r="K106" s="9"/>
+      <c r="K106" s="10"/>
     </row>
     <row r="107">
-      <c r="K107" s="9"/>
+      <c r="K107" s="10"/>
     </row>
     <row r="108">
-      <c r="K108" s="9"/>
+      <c r="K108" s="10"/>
     </row>
     <row r="109">
-      <c r="K109" s="9"/>
+      <c r="K109" s="10"/>
     </row>
     <row r="110">
-      <c r="K110" s="9"/>
+      <c r="K110" s="10"/>
     </row>
     <row r="111">
-      <c r="K111" s="9"/>
+      <c r="K111" s="10"/>
     </row>
     <row r="112">
-      <c r="K112" s="9"/>
+      <c r="K112" s="10"/>
     </row>
     <row r="113">
-      <c r="K113" s="9"/>
+      <c r="K113" s="10"/>
     </row>
     <row r="114">
-      <c r="K114" s="9"/>
+      <c r="K114" s="10"/>
     </row>
     <row r="115">
-      <c r="K115" s="9"/>
+      <c r="K115" s="10"/>
     </row>
     <row r="116">
-      <c r="K116" s="9"/>
+      <c r="K116" s="10"/>
     </row>
     <row r="117">
-      <c r="K117" s="9"/>
+      <c r="K117" s="10"/>
     </row>
     <row r="118">
-      <c r="K118" s="9"/>
+      <c r="K118" s="10"/>
     </row>
     <row r="119">
-      <c r="K119" s="9"/>
+      <c r="K119" s="10"/>
     </row>
     <row r="120">
-      <c r="K120" s="9"/>
+      <c r="K120" s="10"/>
     </row>
     <row r="121">
-      <c r="K121" s="9"/>
+      <c r="K121" s="10"/>
     </row>
     <row r="122">
-      <c r="K122" s="9"/>
+      <c r="K122" s="10"/>
     </row>
     <row r="123">
-      <c r="K123" s="9"/>
+      <c r="K123" s="10"/>
     </row>
     <row r="124">
-      <c r="K124" s="9"/>
+      <c r="K124" s="10"/>
     </row>
     <row r="125">
-      <c r="K125" s="9"/>
+      <c r="K125" s="10"/>
     </row>
     <row r="126">
-      <c r="K126" s="9"/>
+      <c r="K126" s="10"/>
     </row>
     <row r="127">
-      <c r="K127" s="9"/>
+      <c r="K127" s="10"/>
     </row>
     <row r="128">
-      <c r="K128" s="9"/>
+      <c r="K128" s="10"/>
     </row>
     <row r="129">
-      <c r="K129" s="9"/>
+      <c r="K129" s="10"/>
     </row>
     <row r="130">
-      <c r="K130" s="9"/>
+      <c r="K130" s="10"/>
     </row>
     <row r="131">
-      <c r="K131" s="9"/>
+      <c r="K131" s="10"/>
     </row>
     <row r="132">
-      <c r="K132" s="9"/>
+      <c r="K132" s="10"/>
     </row>
     <row r="133">
-      <c r="K133" s="9"/>
+      <c r="K133" s="10"/>
     </row>
     <row r="134">
-      <c r="K134" s="9"/>
+      <c r="K134" s="10"/>
     </row>
     <row r="135">
-      <c r="K135" s="9"/>
+      <c r="K135" s="10"/>
     </row>
     <row r="136">
-      <c r="K136" s="9"/>
+      <c r="K136" s="10"/>
     </row>
     <row r="137">
-      <c r="K137" s="9"/>
+      <c r="K137" s="10"/>
     </row>
     <row r="138">
-      <c r="K138" s="9"/>
+      <c r="K138" s="10"/>
     </row>
     <row r="139">
-      <c r="K139" s="9"/>
+      <c r="K139" s="10"/>
     </row>
     <row r="140">
-      <c r="K140" s="9"/>
+      <c r="K140" s="10"/>
     </row>
     <row r="141">
-      <c r="K141" s="9"/>
+      <c r="K141" s="10"/>
     </row>
     <row r="142">
-      <c r="K142" s="9"/>
+      <c r="K142" s="10"/>
     </row>
     <row r="143">
-      <c r="K143" s="9"/>
+      <c r="K143" s="10"/>
     </row>
     <row r="144">
-      <c r="K144" s="9"/>
+      <c r="K144" s="10"/>
     </row>
     <row r="145">
-      <c r="K145" s="9"/>
+      <c r="K145" s="10"/>
     </row>
     <row r="146">
-      <c r="K146" s="9"/>
+      <c r="K146" s="10"/>
     </row>
     <row r="147">
-      <c r="K147" s="9"/>
+      <c r="K147" s="10"/>
     </row>
     <row r="148">
-      <c r="K148" s="9"/>
+      <c r="K148" s="10"/>
     </row>
     <row r="149">
-      <c r="K149" s="9"/>
+      <c r="K149" s="10"/>
     </row>
     <row r="150">
-      <c r="K150" s="9"/>
+      <c r="K150" s="10"/>
     </row>
     <row r="151">
-      <c r="K151" s="9"/>
+      <c r="K151" s="10"/>
     </row>
     <row r="152">
-      <c r="K152" s="9"/>
+      <c r="K152" s="10"/>
     </row>
     <row r="153">
-      <c r="K153" s="9"/>
+      <c r="K153" s="10"/>
     </row>
     <row r="154">
-      <c r="K154" s="9"/>
+      <c r="K154" s="10"/>
     </row>
     <row r="155">
-      <c r="K155" s="9"/>
+      <c r="K155" s="10"/>
     </row>
     <row r="156">
-      <c r="K156" s="9"/>
+      <c r="K156" s="10"/>
     </row>
     <row r="157">
-      <c r="K157" s="9"/>
+      <c r="K157" s="10"/>
     </row>
     <row r="158">
-      <c r="K158" s="9"/>
+      <c r="K158" s="10"/>
     </row>
     <row r="159">
-      <c r="K159" s="9"/>
+      <c r="K159" s="10"/>
     </row>
     <row r="160">
-      <c r="K160" s="9"/>
+      <c r="K160" s="10"/>
     </row>
     <row r="161">
-      <c r="K161" s="9"/>
+      <c r="K161" s="10"/>
     </row>
     <row r="162">
-      <c r="K162" s="9"/>
+      <c r="K162" s="10"/>
     </row>
     <row r="163">
-      <c r="K163" s="9"/>
+      <c r="K163" s="10"/>
     </row>
     <row r="164">
-      <c r="K164" s="9"/>
+      <c r="K164" s="10"/>
     </row>
     <row r="165">
-      <c r="K165" s="9"/>
+      <c r="K165" s="10"/>
     </row>
     <row r="166">
-      <c r="K166" s="9"/>
+      <c r="K166" s="10"/>
     </row>
     <row r="167">
-      <c r="K167" s="9"/>
+      <c r="K167" s="10"/>
     </row>
     <row r="168">
-      <c r="K168" s="9"/>
+      <c r="K168" s="10"/>
     </row>
     <row r="169">
-      <c r="K169" s="9"/>
+      <c r="K169" s="10"/>
     </row>
     <row r="170">
-      <c r="K170" s="9"/>
+      <c r="K170" s="10"/>
     </row>
     <row r="171">
-      <c r="K171" s="9"/>
+      <c r="K171" s="10"/>
     </row>
     <row r="172">
-      <c r="K172" s="9"/>
+      <c r="K172" s="10"/>
     </row>
     <row r="173">
-      <c r="K173" s="9"/>
+      <c r="K173" s="10"/>
     </row>
     <row r="174">
-      <c r="K174" s="9"/>
+      <c r="K174" s="10"/>
     </row>
     <row r="175">
-      <c r="K175" s="9"/>
+      <c r="K175" s="10"/>
     </row>
     <row r="176">
-      <c r="K176" s="9"/>
+      <c r="K176" s="10"/>
     </row>
     <row r="177">
-      <c r="K177" s="9"/>
+      <c r="K177" s="10"/>
     </row>
     <row r="178">
-      <c r="K178" s="9"/>
+      <c r="K178" s="10"/>
     </row>
     <row r="179">
-      <c r="K179" s="9"/>
+      <c r="K179" s="10"/>
     </row>
     <row r="180">
-      <c r="K180" s="9"/>
+      <c r="K180" s="10"/>
     </row>
     <row r="181">
-      <c r="K181" s="9"/>
+      <c r="K181" s="10"/>
     </row>
     <row r="182">
-      <c r="K182" s="9"/>
+      <c r="K182" s="10"/>
     </row>
     <row r="183">
-      <c r="K183" s="9"/>
+      <c r="K183" s="10"/>
     </row>
     <row r="184">
-      <c r="K184" s="9"/>
+      <c r="K184" s="10"/>
     </row>
     <row r="185">
-      <c r="K185" s="9"/>
+      <c r="K185" s="10"/>
     </row>
     <row r="186">
-      <c r="K186" s="9"/>
+      <c r="K186" s="10"/>
     </row>
     <row r="187">
-      <c r="K187" s="9"/>
+      <c r="K187" s="10"/>
     </row>
     <row r="188">
-      <c r="K188" s="9"/>
+      <c r="K188" s="10"/>
     </row>
     <row r="189">
-      <c r="K189" s="9"/>
+      <c r="K189" s="10"/>
     </row>
     <row r="190">
-      <c r="K190" s="9"/>
+      <c r="K190" s="10"/>
     </row>
     <row r="191">
-      <c r="K191" s="9"/>
+      <c r="K191" s="10"/>
     </row>
     <row r="192">
-      <c r="K192" s="9"/>
+      <c r="K192" s="10"/>
     </row>
     <row r="193">
-      <c r="K193" s="9"/>
+      <c r="K193" s="10"/>
     </row>
     <row r="194">
-      <c r="K194" s="9"/>
+      <c r="K194" s="10"/>
     </row>
     <row r="195">
-      <c r="K195" s="9"/>
+      <c r="K195" s="10"/>
     </row>
     <row r="196">
-      <c r="K196" s="9"/>
+      <c r="K196" s="10"/>
     </row>
     <row r="197">
-      <c r="K197" s="9"/>
+      <c r="K197" s="10"/>
     </row>
     <row r="198">
-      <c r="K198" s="9"/>
+      <c r="K198" s="10"/>
     </row>
     <row r="199">
-      <c r="K199" s="9"/>
+      <c r="K199" s="10"/>
     </row>
     <row r="200">
-      <c r="K200" s="9"/>
+      <c r="K200" s="10"/>
     </row>
     <row r="201">
-      <c r="K201" s="9"/>
+      <c r="K201" s="10"/>
     </row>
     <row r="202">
-      <c r="K202" s="9"/>
+      <c r="K202" s="10"/>
     </row>
     <row r="203">
-      <c r="K203" s="9"/>
+      <c r="K203" s="10"/>
     </row>
     <row r="204">
-      <c r="K204" s="9"/>
+      <c r="K204" s="10"/>
     </row>
     <row r="205">
-      <c r="K205" s="9"/>
+      <c r="K205" s="10"/>
     </row>
     <row r="206">
-      <c r="K206" s="9"/>
+      <c r="K206" s="10"/>
     </row>
     <row r="207">
-      <c r="K207" s="9"/>
+      <c r="K207" s="10"/>
     </row>
     <row r="208">
-      <c r="K208" s="9"/>
+      <c r="K208" s="10"/>
     </row>
     <row r="209">
-      <c r="K209" s="9"/>
+      <c r="K209" s="10"/>
     </row>
     <row r="210">
-      <c r="K210" s="9"/>
+      <c r="K210" s="10"/>
     </row>
     <row r="211">
-      <c r="K211" s="9"/>
+      <c r="K211" s="10"/>
     </row>
     <row r="212">
-      <c r="K212" s="9"/>
+      <c r="K212" s="10"/>
     </row>
     <row r="213">
-      <c r="K213" s="9"/>
+      <c r="K213" s="10"/>
     </row>
     <row r="214">
-      <c r="K214" s="9"/>
+      <c r="K214" s="10"/>
     </row>
     <row r="215">
-      <c r="K215" s="9"/>
+      <c r="K215" s="10"/>
     </row>
     <row r="216">
-      <c r="K216" s="9"/>
+      <c r="K216" s="10"/>
     </row>
     <row r="217">
-      <c r="K217" s="9"/>
+      <c r="K217" s="10"/>
     </row>
     <row r="218">
-      <c r="K218" s="9"/>
+      <c r="K218" s="10"/>
     </row>
     <row r="219">
-      <c r="K219" s="9"/>
+      <c r="K219" s="10"/>
     </row>
     <row r="220">
-      <c r="K220" s="9"/>
+      <c r="K220" s="10"/>
     </row>
     <row r="221">
-      <c r="K221" s="9"/>
+      <c r="K221" s="10"/>
     </row>
     <row r="222">
-      <c r="K222" s="9"/>
+      <c r="K222" s="10"/>
     </row>
     <row r="223">
-      <c r="K223" s="9"/>
+      <c r="K223" s="10"/>
     </row>
     <row r="224">
-      <c r="K224" s="9"/>
+      <c r="K224" s="10"/>
     </row>
     <row r="225">
-      <c r="K225" s="9"/>
+      <c r="K225" s="10"/>
     </row>
     <row r="226">
-      <c r="K226" s="9"/>
+      <c r="K226" s="10"/>
     </row>
     <row r="227">
-      <c r="K227" s="9"/>
+      <c r="K227" s="10"/>
     </row>
     <row r="228">
-      <c r="K228" s="9"/>
+      <c r="K228" s="10"/>
     </row>
     <row r="229">
-      <c r="K229" s="9"/>
+      <c r="K229" s="10"/>
     </row>
     <row r="230">
-      <c r="K230" s="9"/>
+      <c r="K230" s="10"/>
     </row>
     <row r="231">
-      <c r="K231" s="9"/>
+      <c r="K231" s="10"/>
     </row>
     <row r="232">
-      <c r="K232" s="9"/>
+      <c r="K232" s="10"/>
     </row>
     <row r="233">
-      <c r="K233" s="9"/>
+      <c r="K233" s="10"/>
     </row>
     <row r="234">
-      <c r="K234" s="9"/>
+      <c r="K234" s="10"/>
     </row>
     <row r="235">
-      <c r="K235" s="9"/>
+      <c r="K235" s="10"/>
     </row>
     <row r="236">
-      <c r="K236" s="9"/>
+      <c r="K236" s="10"/>
     </row>
     <row r="237">
-      <c r="K237" s="9"/>
+      <c r="K237" s="10"/>
     </row>
     <row r="238">
-      <c r="K238" s="9"/>
+      <c r="K238" s="10"/>
     </row>
     <row r="239">
-      <c r="K239" s="9"/>
+      <c r="K239" s="10"/>
     </row>
     <row r="240">
-      <c r="K240" s="9"/>
+      <c r="K240" s="10"/>
     </row>
     <row r="241">
-      <c r="K241" s="9"/>
+      <c r="K241" s="10"/>
     </row>
     <row r="242">
-      <c r="K242" s="9"/>
+      <c r="K242" s="10"/>
     </row>
     <row r="243">
-      <c r="K243" s="9"/>
+      <c r="K243" s="10"/>
     </row>
     <row r="244">
-      <c r="K244" s="9"/>
+      <c r="K244" s="10"/>
     </row>
     <row r="245">
-      <c r="K245" s="9"/>
+      <c r="K245" s="10"/>
     </row>
     <row r="246">
-      <c r="K246" s="9"/>
+      <c r="K246" s="10"/>
     </row>
     <row r="247">
-      <c r="K247" s="9"/>
+      <c r="K247" s="10"/>
     </row>
     <row r="248">
-      <c r="K248" s="9"/>
+      <c r="K248" s="10"/>
     </row>
     <row r="249">
-      <c r="K249" s="9"/>
+      <c r="K249" s="10"/>
     </row>
     <row r="250">
-      <c r="K250" s="9"/>
+      <c r="K250" s="10"/>
     </row>
     <row r="251">
-      <c r="K251" s="9"/>
+      <c r="K251" s="10"/>
     </row>
     <row r="252">
-      <c r="K252" s="9"/>
+      <c r="K252" s="10"/>
     </row>
     <row r="253">
-      <c r="K253" s="9"/>
+      <c r="K253" s="10"/>
     </row>
     <row r="254">
-      <c r="K254" s="9"/>
+      <c r="K254" s="10"/>
     </row>
     <row r="255">
-      <c r="K255" s="9"/>
+      <c r="K255" s="10"/>
     </row>
     <row r="256">
-      <c r="K256" s="9"/>
+      <c r="K256" s="10"/>
     </row>
     <row r="257">
-      <c r="K257" s="9"/>
+      <c r="K257" s="10"/>
     </row>
     <row r="258">
-      <c r="K258" s="9"/>
+      <c r="K258" s="10"/>
     </row>
     <row r="259">
-      <c r="K259" s="9"/>
+      <c r="K259" s="10"/>
     </row>
     <row r="260">
-      <c r="K260" s="9"/>
+      <c r="K260" s="10"/>
     </row>
     <row r="261">
-      <c r="K261" s="9"/>
+      <c r="K261" s="10"/>
     </row>
     <row r="262">
-      <c r="K262" s="9"/>
+      <c r="K262" s="10"/>
     </row>
     <row r="263">
-      <c r="K263" s="9"/>
+      <c r="K263" s="10"/>
     </row>
     <row r="264">
-      <c r="K264" s="9"/>
+      <c r="K264" s="10"/>
     </row>
     <row r="265">
-      <c r="K265" s="9"/>
+      <c r="K265" s="10"/>
     </row>
     <row r="266">
-      <c r="K266" s="9"/>
+      <c r="K266" s="10"/>
     </row>
     <row r="267">
-      <c r="K267" s="9"/>
+      <c r="K267" s="10"/>
     </row>
     <row r="268">
-      <c r="K268" s="9"/>
+      <c r="K268" s="10"/>
     </row>
     <row r="269">
-      <c r="K269" s="9"/>
+      <c r="K269" s="10"/>
     </row>
     <row r="270">
-      <c r="K270" s="9"/>
+      <c r="K270" s="10"/>
     </row>
     <row r="271">
-      <c r="K271" s="9"/>
+      <c r="K271" s="10"/>
     </row>
     <row r="272">
-      <c r="K272" s="9"/>
+      <c r="K272" s="10"/>
     </row>
     <row r="273">
-      <c r="K273" s="9"/>
+      <c r="K273" s="10"/>
     </row>
     <row r="274">
-      <c r="K274" s="9"/>
+      <c r="K274" s="10"/>
     </row>
     <row r="275">
-      <c r="K275" s="9"/>
+      <c r="K275" s="10"/>
     </row>
     <row r="276">
-      <c r="K276" s="9"/>
+      <c r="K276" s="10"/>
     </row>
     <row r="277">
-      <c r="K277" s="9"/>
+      <c r="K277" s="10"/>
     </row>
     <row r="278">
-      <c r="K278" s="9"/>
+      <c r="K278" s="10"/>
     </row>
     <row r="279">
-      <c r="K279" s="9"/>
+      <c r="K279" s="10"/>
     </row>
     <row r="280">
-      <c r="K280" s="9"/>
+      <c r="K280" s="10"/>
     </row>
     <row r="281">
-      <c r="K281" s="9"/>
+      <c r="K281" s="10"/>
     </row>
     <row r="282">
-      <c r="K282" s="9"/>
+      <c r="K282" s="10"/>
     </row>
     <row r="283">
-      <c r="K283" s="9"/>
+      <c r="K283" s="10"/>
     </row>
     <row r="284">
-      <c r="K284" s="9"/>
+      <c r="K284" s="10"/>
     </row>
     <row r="285">
-      <c r="K285" s="9"/>
+      <c r="K285" s="10"/>
     </row>
     <row r="286">
-      <c r="K286" s="9"/>
+      <c r="K286" s="10"/>
     </row>
     <row r="287">
-      <c r="K287" s="9"/>
+      <c r="K287" s="10"/>
     </row>
     <row r="288">
-      <c r="K288" s="9"/>
+      <c r="K288" s="10"/>
     </row>
     <row r="289">
-      <c r="K289" s="9"/>
+      <c r="K289" s="10"/>
     </row>
     <row r="290">
-      <c r="K290" s="9"/>
+      <c r="K290" s="10"/>
     </row>
     <row r="291">
-      <c r="K291" s="9"/>
+      <c r="K291" s="10"/>
     </row>
     <row r="292">
-      <c r="K292" s="9"/>
+      <c r="K292" s="10"/>
     </row>
     <row r="293">
-      <c r="K293" s="9"/>
+      <c r="K293" s="10"/>
     </row>
     <row r="294">
-      <c r="K294" s="9"/>
+      <c r="K294" s="10"/>
     </row>
     <row r="295">
-      <c r="K295" s="9"/>
+      <c r="K295" s="10"/>
     </row>
     <row r="296">
-      <c r="K296" s="9"/>
+      <c r="K296" s="10"/>
     </row>
     <row r="297">
-      <c r="K297" s="9"/>
+      <c r="K297" s="10"/>
     </row>
     <row r="298">
-      <c r="K298" s="9"/>
+      <c r="K298" s="10"/>
     </row>
     <row r="299">
-      <c r="K299" s="9"/>
+      <c r="K299" s="10"/>
     </row>
     <row r="300">
-      <c r="K300" s="9"/>
+      <c r="K300" s="10"/>
     </row>
     <row r="301">
-      <c r="K301" s="9"/>
+      <c r="K301" s="10"/>
     </row>
     <row r="302">
-      <c r="K302" s="9"/>
+      <c r="K302" s="10"/>
     </row>
     <row r="303">
-      <c r="K303" s="9"/>
+      <c r="K303" s="10"/>
     </row>
     <row r="304">
-      <c r="K304" s="9"/>
+      <c r="K304" s="10"/>
     </row>
     <row r="305">
-      <c r="K305" s="9"/>
+      <c r="K305" s="10"/>
     </row>
     <row r="306">
-      <c r="K306" s="9"/>
+      <c r="K306" s="10"/>
     </row>
     <row r="307">
-      <c r="K307" s="9"/>
+      <c r="K307" s="10"/>
     </row>
     <row r="308">
-      <c r="K308" s="9"/>
+      <c r="K308" s="10"/>
     </row>
     <row r="309">
-      <c r="K309" s="9"/>
+      <c r="K309" s="10"/>
     </row>
     <row r="310">
-      <c r="K310" s="9"/>
+      <c r="K310" s="10"/>
     </row>
     <row r="311">
-      <c r="K311" s="9"/>
+      <c r="K311" s="10"/>
     </row>
     <row r="312">
-      <c r="K312" s="9"/>
+      <c r="K312" s="10"/>
     </row>
     <row r="313">
-      <c r="K313" s="9"/>
+      <c r="K313" s="10"/>
     </row>
     <row r="314">
-      <c r="K314" s="9"/>
+      <c r="K314" s="10"/>
     </row>
     <row r="315">
-      <c r="K315" s="9"/>
+      <c r="K315" s="10"/>
     </row>
     <row r="316">
-      <c r="K316" s="9"/>
+      <c r="K316" s="10"/>
     </row>
     <row r="317">
-      <c r="K317" s="9"/>
+      <c r="K317" s="10"/>
     </row>
     <row r="318">
-      <c r="K318" s="9"/>
+      <c r="K318" s="10"/>
     </row>
     <row r="319">
-      <c r="K319" s="9"/>
+      <c r="K319" s="10"/>
     </row>
     <row r="320">
-      <c r="K320" s="9"/>
+      <c r="K320" s="10"/>
     </row>
     <row r="321">
-      <c r="K321" s="9"/>
+      <c r="K321" s="10"/>
     </row>
     <row r="322">
-      <c r="K322" s="9"/>
+      <c r="K322" s="10"/>
     </row>
     <row r="323">
-      <c r="K323" s="9"/>
+      <c r="K323" s="10"/>
     </row>
     <row r="324">
-      <c r="K324" s="9"/>
+      <c r="K324" s="10"/>
     </row>
     <row r="325">
-      <c r="K325" s="9"/>
+      <c r="K325" s="10"/>
     </row>
     <row r="326">
-      <c r="K326" s="9"/>
+      <c r="K326" s="10"/>
     </row>
     <row r="327">
-      <c r="K327" s="9"/>
+      <c r="K327" s="10"/>
     </row>
     <row r="328">
-      <c r="K328" s="9"/>
+      <c r="K328" s="10"/>
     </row>
     <row r="329">
-      <c r="K329" s="9"/>
+      <c r="K329" s="10"/>
     </row>
     <row r="330">
-      <c r="K330" s="9"/>
+      <c r="K330" s="10"/>
     </row>
     <row r="331">
-      <c r="K331" s="9"/>
+      <c r="K331" s="10"/>
     </row>
     <row r="332">
-      <c r="K332" s="9"/>
+      <c r="K332" s="10"/>
     </row>
     <row r="333">
-      <c r="K333" s="9"/>
+      <c r="K333" s="10"/>
     </row>
     <row r="334">
-      <c r="K334" s="9"/>
+      <c r="K334" s="10"/>
     </row>
     <row r="335">
-      <c r="K335" s="9"/>
+      <c r="K335" s="10"/>
     </row>
     <row r="336">
-      <c r="K336" s="9"/>
+      <c r="K336" s="10"/>
     </row>
     <row r="337">
-      <c r="K337" s="9"/>
+      <c r="K337" s="10"/>
     </row>
     <row r="338">
-      <c r="K338" s="9"/>
+      <c r="K338" s="10"/>
     </row>
     <row r="339">
-      <c r="K339" s="9"/>
+      <c r="K339" s="10"/>
     </row>
     <row r="340">
-      <c r="K340" s="9"/>
+      <c r="K340" s="10"/>
     </row>
     <row r="341">
-      <c r="K341" s="9"/>
+      <c r="K341" s="10"/>
     </row>
     <row r="342">
-      <c r="K342" s="9"/>
+      <c r="K342" s="10"/>
     </row>
     <row r="343">
-      <c r="K343" s="9"/>
+      <c r="K343" s="10"/>
     </row>
     <row r="344">
-      <c r="K344" s="9"/>
+      <c r="K344" s="10"/>
     </row>
     <row r="345">
-      <c r="K345" s="9"/>
+      <c r="K345" s="10"/>
     </row>
     <row r="346">
-      <c r="K346" s="9"/>
+      <c r="K346" s="10"/>
     </row>
     <row r="347">
-      <c r="K347" s="9"/>
+      <c r="K347" s="10"/>
     </row>
     <row r="348">
-      <c r="K348" s="9"/>
+      <c r="K348" s="10"/>
     </row>
     <row r="349">
-      <c r="K349" s="9"/>
+      <c r="K349" s="10"/>
     </row>
     <row r="350">
-      <c r="K350" s="9"/>
+      <c r="K350" s="10"/>
     </row>
     <row r="351">
-      <c r="K351" s="9"/>
+      <c r="K351" s="10"/>
     </row>
     <row r="352">
-      <c r="K352" s="9"/>
+      <c r="K352" s="10"/>
     </row>
     <row r="353">
-      <c r="K353" s="9"/>
+      <c r="K353" s="10"/>
     </row>
     <row r="354">
-      <c r="K354" s="9"/>
+      <c r="K354" s="10"/>
     </row>
     <row r="355">
-      <c r="K355" s="9"/>
+      <c r="K355" s="10"/>
     </row>
     <row r="356">
-      <c r="K356" s="9"/>
+      <c r="K356" s="10"/>
     </row>
     <row r="357">
-      <c r="K357" s="9"/>
+      <c r="K357" s="10"/>
     </row>
     <row r="358">
-      <c r="K358" s="9"/>
+      <c r="K358" s="10"/>
     </row>
     <row r="359">
-      <c r="K359" s="9"/>
+      <c r="K359" s="10"/>
     </row>
     <row r="360">
-      <c r="K360" s="9"/>
+      <c r="K360" s="10"/>
     </row>
     <row r="361">
-      <c r="K361" s="9"/>
+      <c r="K361" s="10"/>
     </row>
     <row r="362">
-      <c r="K362" s="9"/>
+      <c r="K362" s="10"/>
     </row>
     <row r="363">
-      <c r="K363" s="9"/>
+      <c r="K363" s="10"/>
     </row>
     <row r="364">
-      <c r="K364" s="9"/>
+      <c r="K364" s="10"/>
     </row>
     <row r="365">
-      <c r="K365" s="9"/>
+      <c r="K365" s="10"/>
     </row>
     <row r="366">
-      <c r="K366" s="9"/>
+      <c r="K366" s="10"/>
     </row>
     <row r="367">
-      <c r="K367" s="9"/>
+      <c r="K367" s="10"/>
     </row>
     <row r="368">
-      <c r="K368" s="9"/>
+      <c r="K368" s="10"/>
     </row>
     <row r="369">
-      <c r="K369" s="9"/>
+      <c r="K369" s="10"/>
     </row>
     <row r="370">
-      <c r="K370" s="9"/>
+      <c r="K370" s="10"/>
     </row>
     <row r="371">
-      <c r="K371" s="9"/>
+      <c r="K371" s="10"/>
     </row>
     <row r="372">
-      <c r="K372" s="9"/>
+      <c r="K372" s="10"/>
     </row>
     <row r="373">
-      <c r="K373" s="9"/>
+      <c r="K373" s="10"/>
     </row>
     <row r="374">
-      <c r="K374" s="9"/>
+      <c r="K374" s="10"/>
     </row>
     <row r="375">
-      <c r="K375" s="9"/>
+      <c r="K375" s="10"/>
     </row>
     <row r="376">
-      <c r="K376" s="9"/>
+      <c r="K376" s="10"/>
     </row>
     <row r="377">
-      <c r="K377" s="9"/>
+      <c r="K377" s="10"/>
     </row>
     <row r="378">
-      <c r="K378" s="9"/>
+      <c r="K378" s="10"/>
     </row>
     <row r="379">
-      <c r="K379" s="9"/>
+      <c r="K379" s="10"/>
     </row>
     <row r="380">
-      <c r="K380" s="9"/>
+      <c r="K380" s="10"/>
     </row>
     <row r="381">
-      <c r="K381" s="9"/>
+      <c r="K381" s="10"/>
     </row>
     <row r="382">
-      <c r="K382" s="9"/>
+      <c r="K382" s="10"/>
     </row>
     <row r="383">
-      <c r="K383" s="9"/>
+      <c r="K383" s="10"/>
     </row>
     <row r="384">
-      <c r="K384" s="9"/>
+      <c r="K384" s="10"/>
     </row>
     <row r="385">
-      <c r="K385" s="9"/>
+      <c r="K385" s="10"/>
     </row>
     <row r="386">
-      <c r="K386" s="9"/>
+      <c r="K386" s="10"/>
     </row>
     <row r="387">
-      <c r="K387" s="9"/>
+      <c r="K387" s="10"/>
     </row>
     <row r="388">
-      <c r="K388" s="9"/>
+      <c r="K388" s="10"/>
     </row>
     <row r="389">
-      <c r="K389" s="9"/>
+      <c r="K389" s="10"/>
     </row>
     <row r="390">
-      <c r="K390" s="9"/>
+      <c r="K390" s="10"/>
     </row>
     <row r="391">
-      <c r="K391" s="9"/>
+      <c r="K391" s="10"/>
     </row>
     <row r="392">
-      <c r="K392" s="9"/>
+      <c r="K392" s="10"/>
     </row>
     <row r="393">
-      <c r="K393" s="9"/>
+      <c r="K393" s="10"/>
     </row>
     <row r="394">
-      <c r="K394" s="9"/>
+      <c r="K394" s="10"/>
     </row>
     <row r="395">
-      <c r="K395" s="9"/>
+      <c r="K395" s="10"/>
     </row>
     <row r="396">
-      <c r="K396" s="9"/>
+      <c r="K396" s="10"/>
     </row>
     <row r="397">
-      <c r="K397" s="9"/>
+      <c r="K397" s="10"/>
     </row>
     <row r="398">
-      <c r="K398" s="9"/>
+      <c r="K398" s="10"/>
     </row>
     <row r="399">
-      <c r="K399" s="9"/>
+      <c r="K399" s="10"/>
     </row>
     <row r="400">
-      <c r="K400" s="9"/>
+      <c r="K400" s="10"/>
     </row>
     <row r="401">
-      <c r="K401" s="9"/>
+      <c r="K401" s="10"/>
     </row>
     <row r="402">
-      <c r="K402" s="9"/>
+      <c r="K402" s="10"/>
     </row>
     <row r="403">
-      <c r="K403" s="9"/>
+      <c r="K403" s="10"/>
     </row>
     <row r="404">
-      <c r="K404" s="9"/>
+      <c r="K404" s="10"/>
     </row>
     <row r="405">
-      <c r="K405" s="9"/>
+      <c r="K405" s="10"/>
     </row>
     <row r="406">
-      <c r="K406" s="9"/>
+      <c r="K406" s="10"/>
     </row>
     <row r="407">
-      <c r="K407" s="9"/>
+      <c r="K407" s="10"/>
     </row>
     <row r="408">
-      <c r="K408" s="9"/>
+      <c r="K408" s="10"/>
     </row>
     <row r="409">
-      <c r="K409" s="9"/>
+      <c r="K409" s="10"/>
     </row>
     <row r="410">
-      <c r="K410" s="9"/>
+      <c r="K410" s="10"/>
     </row>
     <row r="411">
-      <c r="K411" s="9"/>
+      <c r="K411" s="10"/>
     </row>
     <row r="412">
-      <c r="K412" s="9"/>
+      <c r="K412" s="10"/>
     </row>
     <row r="413">
-      <c r="K413" s="9"/>
+      <c r="K413" s="10"/>
     </row>
     <row r="414">
-      <c r="K414" s="9"/>
+      <c r="K414" s="10"/>
     </row>
     <row r="415">
-      <c r="K415" s="9"/>
+      <c r="K415" s="10"/>
     </row>
     <row r="416">
-      <c r="K416" s="9"/>
+      <c r="K416" s="10"/>
     </row>
     <row r="417">
-      <c r="K417" s="9"/>
+      <c r="K417" s="10"/>
     </row>
     <row r="418">
-      <c r="K418" s="9"/>
+      <c r="K418" s="10"/>
     </row>
     <row r="419">
-      <c r="K419" s="9"/>
+      <c r="K419" s="10"/>
     </row>
     <row r="420">
-      <c r="K420" s="9"/>
+      <c r="K420" s="10"/>
     </row>
     <row r="421">
-      <c r="K421" s="9"/>
+      <c r="K421" s="10"/>
     </row>
     <row r="422">
-      <c r="K422" s="9"/>
+      <c r="K422" s="10"/>
     </row>
     <row r="423">
-      <c r="K423" s="9"/>
+      <c r="K423" s="10"/>
     </row>
     <row r="424">
-      <c r="K424" s="9"/>
+      <c r="K424" s="10"/>
     </row>
     <row r="425">
-      <c r="K425" s="9"/>
+      <c r="K425" s="10"/>
     </row>
     <row r="426">
-      <c r="K426" s="9"/>
+      <c r="K426" s="10"/>
     </row>
     <row r="427">
-      <c r="K427" s="9"/>
+      <c r="K427" s="10"/>
     </row>
     <row r="428">
-      <c r="K428" s="9"/>
+      <c r="K428" s="10"/>
     </row>
     <row r="429">
-      <c r="K429" s="9"/>
+      <c r="K429" s="10"/>
     </row>
     <row r="430">
-      <c r="K430" s="9"/>
+      <c r="K430" s="10"/>
     </row>
     <row r="431">
-      <c r="K431" s="9"/>
+      <c r="K431" s="10"/>
     </row>
     <row r="432">
-      <c r="K432" s="9"/>
+      <c r="K432" s="10"/>
     </row>
     <row r="433">
-      <c r="K433" s="9"/>
+      <c r="K433" s="10"/>
     </row>
     <row r="434">
-      <c r="K434" s="9"/>
+      <c r="K434" s="10"/>
     </row>
     <row r="435">
-      <c r="K435" s="9"/>
+      <c r="K435" s="10"/>
     </row>
     <row r="436">
-      <c r="K436" s="9"/>
+      <c r="K436" s="10"/>
     </row>
     <row r="437">
-      <c r="K437" s="9"/>
+      <c r="K437" s="10"/>
     </row>
     <row r="438">
-      <c r="K438" s="9"/>
+      <c r="K438" s="10"/>
     </row>
     <row r="439">
-      <c r="K439" s="9"/>
+      <c r="K439" s="10"/>
     </row>
     <row r="440">
-      <c r="K440" s="9"/>
+      <c r="K440" s="10"/>
     </row>
     <row r="441">
-      <c r="K441" s="9"/>
+      <c r="K441" s="10"/>
     </row>
     <row r="442">
-      <c r="K442" s="9"/>
+      <c r="K442" s="10"/>
     </row>
     <row r="443">
-      <c r="K443" s="9"/>
+      <c r="K443" s="10"/>
     </row>
     <row r="444">
-      <c r="K444" s="9"/>
+      <c r="K444" s="10"/>
     </row>
     <row r="445">
-      <c r="K445" s="9"/>
+      <c r="K445" s="10"/>
     </row>
     <row r="446">
-      <c r="K446" s="9"/>
+      <c r="K446" s="10"/>
     </row>
     <row r="447">
-      <c r="K447" s="9"/>
+      <c r="K447" s="10"/>
     </row>
     <row r="448">
-      <c r="K448" s="9"/>
+      <c r="K448" s="10"/>
     </row>
     <row r="449">
-      <c r="K449" s="9"/>
+      <c r="K449" s="10"/>
     </row>
     <row r="450">
-      <c r="K450" s="9"/>
+      <c r="K450" s="10"/>
     </row>
     <row r="451">
-      <c r="K451" s="9"/>
+      <c r="K451" s="10"/>
     </row>
     <row r="452">
-      <c r="K452" s="9"/>
+      <c r="K452" s="10"/>
     </row>
     <row r="453">
-      <c r="K453" s="9"/>
+      <c r="K453" s="10"/>
     </row>
     <row r="454">
-      <c r="K454" s="9"/>
+      <c r="K454" s="10"/>
     </row>
     <row r="455">
-      <c r="K455" s="9"/>
+      <c r="K455" s="10"/>
     </row>
     <row r="456">
-      <c r="K456" s="9"/>
+      <c r="K456" s="10"/>
     </row>
     <row r="457">
-      <c r="K457" s="9"/>
+      <c r="K457" s="10"/>
     </row>
     <row r="458">
-      <c r="K458" s="9"/>
+      <c r="K458" s="10"/>
     </row>
     <row r="459">
-      <c r="K459" s="9"/>
+      <c r="K459" s="10"/>
     </row>
     <row r="460">
-      <c r="K460" s="9"/>
+      <c r="K460" s="10"/>
     </row>
     <row r="461">
-      <c r="K461" s="9"/>
+      <c r="K461" s="10"/>
     </row>
     <row r="462">
-      <c r="K462" s="9"/>
+      <c r="K462" s="10"/>
     </row>
     <row r="463">
-      <c r="K463" s="9"/>
+      <c r="K463" s="10"/>
     </row>
     <row r="464">
-      <c r="K464" s="9"/>
+      <c r="K464" s="10"/>
     </row>
     <row r="465">
-      <c r="K465" s="9"/>
+      <c r="K465" s="10"/>
     </row>
     <row r="466">
-      <c r="K466" s="9"/>
+      <c r="K466" s="10"/>
     </row>
     <row r="467">
-      <c r="K467" s="9"/>
+      <c r="K467" s="10"/>
     </row>
     <row r="468">
-      <c r="K468" s="9"/>
+      <c r="K468" s="10"/>
     </row>
     <row r="469">
-      <c r="K469" s="9"/>
+      <c r="K469" s="10"/>
     </row>
     <row r="470">
-      <c r="K470" s="9"/>
+      <c r="K470" s="10"/>
     </row>
     <row r="471">
-      <c r="K471" s="9"/>
+      <c r="K471" s="10"/>
     </row>
     <row r="472">
-      <c r="K472" s="9"/>
+      <c r="K472" s="10"/>
     </row>
     <row r="473">
-      <c r="K473" s="9"/>
+      <c r="K473" s="10"/>
     </row>
     <row r="474">
-      <c r="K474" s="9"/>
+      <c r="K474" s="10"/>
     </row>
     <row r="475">
-      <c r="K475" s="9"/>
+      <c r="K475" s="10"/>
     </row>
     <row r="476">
-      <c r="K476" s="9"/>
+      <c r="K476" s="10"/>
     </row>
     <row r="477">
-      <c r="K477" s="9"/>
+      <c r="K477" s="10"/>
     </row>
     <row r="478">
-      <c r="K478" s="9"/>
+      <c r="K478" s="10"/>
     </row>
     <row r="479">
-      <c r="K479" s="9"/>
+      <c r="K479" s="10"/>
     </row>
     <row r="480">
-      <c r="K480" s="9"/>
+      <c r="K480" s="10"/>
     </row>
     <row r="481">
-      <c r="K481" s="9"/>
+      <c r="K481" s="10"/>
     </row>
     <row r="482">
-      <c r="K482" s="9"/>
+      <c r="K482" s="10"/>
     </row>
     <row r="483">
-      <c r="K483" s="9"/>
+      <c r="K483" s="10"/>
     </row>
     <row r="484">
-      <c r="K484" s="9"/>
+      <c r="K484" s="10"/>
     </row>
     <row r="485">
-      <c r="K485" s="9"/>
+      <c r="K485" s="10"/>
     </row>
     <row r="486">
-      <c r="K486" s="9"/>
+      <c r="K486" s="10"/>
     </row>
     <row r="487">
-      <c r="K487" s="9"/>
+      <c r="K487" s="10"/>
     </row>
     <row r="488">
-      <c r="K488" s="9"/>
+      <c r="K488" s="10"/>
     </row>
     <row r="489">
-      <c r="K489" s="9"/>
+      <c r="K489" s="10"/>
     </row>
     <row r="490">
-      <c r="K490" s="9"/>
+      <c r="K490" s="10"/>
     </row>
     <row r="491">
-      <c r="K491" s="9"/>
+      <c r="K491" s="10"/>
     </row>
     <row r="492">
-      <c r="K492" s="9"/>
+      <c r="K492" s="10"/>
     </row>
     <row r="493">
-      <c r="K493" s="9"/>
+      <c r="K493" s="10"/>
     </row>
     <row r="494">
-      <c r="K494" s="9"/>
+      <c r="K494" s="10"/>
     </row>
     <row r="495">
-      <c r="K495" s="9"/>
+      <c r="K495" s="10"/>
     </row>
     <row r="496">
-      <c r="K496" s="9"/>
+      <c r="K496" s="10"/>
     </row>
     <row r="497">
-      <c r="K497" s="9"/>
+      <c r="K497" s="10"/>
     </row>
     <row r="498">
-      <c r="K498" s="9"/>
+      <c r="K498" s="10"/>
     </row>
     <row r="499">
-      <c r="K499" s="9"/>
+      <c r="K499" s="10"/>
     </row>
     <row r="500">
-      <c r="K500" s="9"/>
+      <c r="K500" s="10"/>
     </row>
     <row r="501">
-      <c r="K501" s="9"/>
+      <c r="K501" s="10"/>
     </row>
     <row r="502">
-      <c r="K502" s="9"/>
+      <c r="K502" s="10"/>
     </row>
     <row r="503">
-      <c r="K503" s="9"/>
+      <c r="K503" s="10"/>
     </row>
     <row r="504">
-      <c r="K504" s="9"/>
+      <c r="K504" s="10"/>
     </row>
     <row r="505">
-      <c r="K505" s="9"/>
+      <c r="K505" s="10"/>
     </row>
     <row r="506">
-      <c r="K506" s="9"/>
+      <c r="K506" s="10"/>
     </row>
     <row r="507">
-      <c r="K507" s="9"/>
+      <c r="K507" s="10"/>
     </row>
     <row r="508">
-      <c r="K508" s="9"/>
+      <c r="K508" s="10"/>
     </row>
     <row r="509">
-      <c r="K509" s="9"/>
+      <c r="K509" s="10"/>
     </row>
     <row r="510">
-      <c r="K510" s="9"/>
+      <c r="K510" s="10"/>
     </row>
     <row r="511">
-      <c r="K511" s="9"/>
+      <c r="K511" s="10"/>
     </row>
     <row r="512">
-      <c r="K512" s="9"/>
+      <c r="K512" s="10"/>
     </row>
     <row r="513">
-      <c r="K513" s="9"/>
+      <c r="K513" s="10"/>
     </row>
     <row r="514">
-      <c r="K514" s="9"/>
+      <c r="K514" s="10"/>
     </row>
     <row r="515">
-      <c r="K515" s="9"/>
+      <c r="K515" s="10"/>
     </row>
     <row r="516">
-      <c r="K516" s="9"/>
+      <c r="K516" s="10"/>
     </row>
     <row r="517">
-      <c r="K517" s="9"/>
+      <c r="K517" s="10"/>
     </row>
     <row r="518">
-      <c r="K518" s="9"/>
+      <c r="K518" s="10"/>
     </row>
     <row r="519">
-      <c r="K519" s="9"/>
+      <c r="K519" s="10"/>
     </row>
     <row r="520">
-      <c r="K520" s="9"/>
+      <c r="K520" s="10"/>
     </row>
     <row r="521">
-      <c r="K521" s="9"/>
+      <c r="K521" s="10"/>
     </row>
     <row r="522">
-      <c r="K522" s="9"/>
+      <c r="K522" s="10"/>
     </row>
     <row r="523">
-      <c r="K523" s="9"/>
+      <c r="K523" s="10"/>
     </row>
     <row r="524">
-      <c r="K524" s="9"/>
+      <c r="K524" s="10"/>
     </row>
     <row r="525">
-      <c r="K525" s="9"/>
+      <c r="K525" s="10"/>
     </row>
     <row r="526">
-      <c r="K526" s="9"/>
+      <c r="K526" s="10"/>
     </row>
     <row r="527">
-      <c r="K527" s="9"/>
+      <c r="K527" s="10"/>
     </row>
     <row r="528">
-      <c r="K528" s="9"/>
+      <c r="K528" s="10"/>
     </row>
     <row r="529">
-      <c r="K529" s="9"/>
+      <c r="K529" s="10"/>
     </row>
     <row r="530">
-      <c r="K530" s="9"/>
+      <c r="K530" s="10"/>
     </row>
     <row r="531">
-      <c r="K531" s="9"/>
+      <c r="K531" s="10"/>
     </row>
     <row r="532">
-      <c r="K532" s="9"/>
+      <c r="K532" s="10"/>
     </row>
     <row r="533">
-      <c r="K533" s="9"/>
+      <c r="K533" s="10"/>
     </row>
     <row r="534">
-      <c r="K534" s="9"/>
+      <c r="K534" s="10"/>
     </row>
     <row r="535">
-      <c r="K535" s="9"/>
+      <c r="K535" s="10"/>
     </row>
     <row r="536">
-      <c r="K536" s="9"/>
+      <c r="K536" s="10"/>
     </row>
     <row r="537">
-      <c r="K537" s="9"/>
+      <c r="K537" s="10"/>
     </row>
     <row r="538">
-      <c r="K538" s="9"/>
+      <c r="K538" s="10"/>
     </row>
     <row r="539">
-      <c r="K539" s="9"/>
+      <c r="K539" s="10"/>
     </row>
     <row r="540">
-      <c r="K540" s="9"/>
+      <c r="K540" s="10"/>
     </row>
     <row r="541">
-      <c r="K541" s="9"/>
+      <c r="K541" s="10"/>
     </row>
     <row r="542">
-      <c r="K542" s="9"/>
+      <c r="K542" s="10"/>
     </row>
     <row r="543">
-      <c r="K543" s="9"/>
+      <c r="K543" s="10"/>
     </row>
     <row r="544">
-      <c r="K544" s="9"/>
+      <c r="K544" s="10"/>
     </row>
     <row r="545">
-      <c r="K545" s="9"/>
+      <c r="K545" s="10"/>
     </row>
     <row r="546">
-      <c r="K546" s="9"/>
+      <c r="K546" s="10"/>
     </row>
     <row r="547">
-      <c r="K547" s="9"/>
+      <c r="K547" s="10"/>
     </row>
     <row r="548">
-      <c r="K548" s="9"/>
+      <c r="K548" s="10"/>
     </row>
     <row r="549">
-      <c r="K549" s="9"/>
+      <c r="K549" s="10"/>
     </row>
     <row r="550">
-      <c r="K550" s="9"/>
+      <c r="K550" s="10"/>
     </row>
     <row r="551">
-      <c r="K551" s="9"/>
+      <c r="K551" s="10"/>
     </row>
     <row r="552">
-      <c r="K552" s="9"/>
+      <c r="K552" s="10"/>
     </row>
     <row r="553">
-      <c r="K553" s="9"/>
+      <c r="K553" s="10"/>
     </row>
     <row r="554">
-      <c r="K554" s="9"/>
+      <c r="K554" s="10"/>
     </row>
     <row r="555">
-      <c r="K555" s="9"/>
+      <c r="K555" s="10"/>
     </row>
     <row r="556">
-      <c r="K556" s="9"/>
+      <c r="K556" s="10"/>
     </row>
     <row r="557">
-      <c r="K557" s="9"/>
+      <c r="K557" s="10"/>
     </row>
     <row r="558">
-      <c r="K558" s="9"/>
+      <c r="K558" s="10"/>
     </row>
     <row r="559">
-      <c r="K559" s="9"/>
+      <c r="K559" s="10"/>
     </row>
     <row r="560">
-      <c r="K560" s="9"/>
+      <c r="K560" s="10"/>
     </row>
     <row r="561">
-      <c r="K561" s="9"/>
+      <c r="K561" s="10"/>
     </row>
     <row r="562">
-      <c r="K562" s="9"/>
+      <c r="K562" s="10"/>
     </row>
     <row r="563">
-      <c r="K563" s="9"/>
+      <c r="K563" s="10"/>
     </row>
     <row r="564">
-      <c r="K564" s="9"/>
+      <c r="K564" s="10"/>
     </row>
     <row r="565">
-      <c r="K565" s="9"/>
+      <c r="K565" s="10"/>
     </row>
     <row r="566">
-      <c r="K566" s="9"/>
+      <c r="K566" s="10"/>
     </row>
     <row r="567">
-      <c r="K567" s="9"/>
+      <c r="K567" s="10"/>
     </row>
     <row r="568">
-      <c r="K568" s="9"/>
+      <c r="K568" s="10"/>
     </row>
     <row r="569">
-      <c r="K569" s="9"/>
+      <c r="K569" s="10"/>
     </row>
     <row r="570">
-      <c r="K570" s="9"/>
+      <c r="K570" s="10"/>
     </row>
     <row r="571">
-      <c r="K571" s="9"/>
+      <c r="K571" s="10"/>
     </row>
     <row r="572">
-      <c r="K572" s="9"/>
+      <c r="K572" s="10"/>
     </row>
     <row r="573">
-      <c r="K573" s="9"/>
+      <c r="K573" s="10"/>
     </row>
     <row r="574">
-      <c r="K574" s="9"/>
+      <c r="K574" s="10"/>
     </row>
     <row r="575">
-      <c r="K575" s="9"/>
+      <c r="K575" s="10"/>
     </row>
     <row r="576">
-      <c r="K576" s="9"/>
+      <c r="K576" s="10"/>
     </row>
     <row r="577">
-      <c r="K577" s="9"/>
+      <c r="K577" s="10"/>
     </row>
     <row r="578">
-      <c r="K578" s="9"/>
+      <c r="K578" s="10"/>
     </row>
     <row r="579">
-      <c r="K579" s="9"/>
+      <c r="K579" s="10"/>
     </row>
     <row r="580">
-      <c r="K580" s="9"/>
+      <c r="K580" s="10"/>
     </row>
     <row r="581">
-      <c r="K581" s="9"/>
+      <c r="K581" s="10"/>
     </row>
     <row r="582">
-      <c r="K582" s="9"/>
+      <c r="K582" s="10"/>
     </row>
     <row r="583">
-      <c r="K583" s="9"/>
+      <c r="K583" s="10"/>
     </row>
     <row r="584">
-      <c r="K584" s="9"/>
+      <c r="K584" s="10"/>
     </row>
     <row r="585">
-      <c r="K585" s="9"/>
+      <c r="K585" s="10"/>
     </row>
     <row r="586">
-      <c r="K586" s="9"/>
+      <c r="K586" s="10"/>
     </row>
     <row r="587">
-      <c r="K587" s="9"/>
+      <c r="K587" s="10"/>
     </row>
     <row r="588">
-      <c r="K588" s="9"/>
+      <c r="K588" s="10"/>
     </row>
     <row r="589">
-      <c r="K589" s="9"/>
+      <c r="K589" s="10"/>
     </row>
     <row r="590">
-      <c r="K590" s="9"/>
+      <c r="K590" s="10"/>
     </row>
     <row r="591">
-      <c r="K591" s="9"/>
+      <c r="K591" s="10"/>
     </row>
     <row r="592">
-      <c r="K592" s="9"/>
+      <c r="K592" s="10"/>
     </row>
     <row r="593">
-      <c r="K593" s="9"/>
+      <c r="K593" s="10"/>
     </row>
     <row r="594">
-      <c r="K594" s="9"/>
+      <c r="K594" s="10"/>
     </row>
     <row r="595">
-      <c r="K595" s="9"/>
+      <c r="K595" s="10"/>
     </row>
     <row r="596">
-      <c r="K596" s="9"/>
+      <c r="K596" s="10"/>
     </row>
     <row r="597">
-      <c r="K597" s="9"/>
+      <c r="K597" s="10"/>
     </row>
     <row r="598">
-      <c r="K598" s="9"/>
+      <c r="K598" s="10"/>
     </row>
     <row r="599">
-      <c r="K599" s="9"/>
+      <c r="K599" s="10"/>
     </row>
     <row r="600">
-      <c r="K600" s="9"/>
+      <c r="K600" s="10"/>
     </row>
     <row r="601">
-      <c r="K601" s="9"/>
+      <c r="K601" s="10"/>
     </row>
     <row r="602">
-      <c r="K602" s="9"/>
+      <c r="K602" s="10"/>
     </row>
     <row r="603">
-      <c r="K603" s="9"/>
+      <c r="K603" s="10"/>
     </row>
     <row r="604">
-      <c r="K604" s="9"/>
+      <c r="K604" s="10"/>
     </row>
     <row r="605">
-      <c r="K605" s="9"/>
+      <c r="K605" s="10"/>
     </row>
     <row r="606">
-      <c r="K606" s="9"/>
+      <c r="K606" s="10"/>
     </row>
     <row r="607">
-      <c r="K607" s="9"/>
+      <c r="K607" s="10"/>
     </row>
     <row r="608">
-      <c r="K608" s="9"/>
+      <c r="K608" s="10"/>
     </row>
     <row r="609">
-      <c r="K609" s="9"/>
+      <c r="K609" s="10"/>
     </row>
     <row r="610">
-      <c r="K610" s="9"/>
+      <c r="K610" s="10"/>
     </row>
     <row r="611">
-      <c r="K611" s="9"/>
+      <c r="K611" s="10"/>
     </row>
     <row r="612">
-      <c r="K612" s="9"/>
+      <c r="K612" s="10"/>
     </row>
     <row r="613">
-      <c r="K613" s="9"/>
+      <c r="K613" s="10"/>
     </row>
     <row r="614">
-      <c r="K614" s="9"/>
+      <c r="K614" s="10"/>
     </row>
     <row r="615">
-      <c r="K615" s="9"/>
+      <c r="K615" s="10"/>
     </row>
     <row r="616">
-      <c r="K616" s="9"/>
+      <c r="K616" s="10"/>
     </row>
     <row r="617">
-      <c r="K617" s="9"/>
+      <c r="K617" s="10"/>
     </row>
     <row r="618">
-      <c r="K618" s="9"/>
+      <c r="K618" s="10"/>
     </row>
     <row r="619">
-      <c r="K619" s="9"/>
+      <c r="K619" s="10"/>
     </row>
     <row r="620">
-      <c r="K620" s="9"/>
+      <c r="K620" s="10"/>
     </row>
     <row r="621">
-      <c r="K621" s="9"/>
+      <c r="K621" s="10"/>
     </row>
     <row r="622">
-      <c r="K622" s="9"/>
+      <c r="K622" s="10"/>
     </row>
     <row r="623">
-      <c r="K623" s="9"/>
+      <c r="K623" s="10"/>
     </row>
     <row r="624">
-      <c r="K624" s="9"/>
+      <c r="K624" s="10"/>
     </row>
     <row r="625">
-      <c r="K625" s="9"/>
+      <c r="K625" s="10"/>
     </row>
     <row r="626">
-      <c r="K626" s="9"/>
+      <c r="K626" s="10"/>
     </row>
     <row r="627">
-      <c r="K627" s="9"/>
+      <c r="K627" s="10"/>
     </row>
     <row r="628">
-      <c r="K628" s="9"/>
+      <c r="K628" s="10"/>
     </row>
     <row r="629">
-      <c r="K629" s="9"/>
+      <c r="K629" s="10"/>
     </row>
     <row r="630">
-      <c r="K630" s="9"/>
+      <c r="K630" s="10"/>
     </row>
     <row r="631">
-      <c r="K631" s="9"/>
+      <c r="K631" s="10"/>
     </row>
     <row r="632">
-      <c r="K632" s="9"/>
+      <c r="K632" s="10"/>
     </row>
     <row r="633">
-      <c r="K633" s="9"/>
+      <c r="K633" s="10"/>
     </row>
     <row r="634">
-      <c r="K634" s="9"/>
+      <c r="K634" s="10"/>
     </row>
     <row r="635">
-      <c r="K635" s="9"/>
+      <c r="K635" s="10"/>
     </row>
     <row r="636">
-      <c r="K636" s="9"/>
+      <c r="K636" s="10"/>
     </row>
     <row r="637">
-      <c r="K637" s="9"/>
+      <c r="K637" s="10"/>
     </row>
     <row r="638">
-      <c r="K638" s="9"/>
+      <c r="K638" s="10"/>
     </row>
     <row r="639">
-      <c r="K639" s="9"/>
+      <c r="K639" s="10"/>
     </row>
     <row r="640">
-      <c r="K640" s="9"/>
+      <c r="K640" s="10"/>
     </row>
     <row r="641">
-      <c r="K641" s="9"/>
+      <c r="K641" s="10"/>
     </row>
     <row r="642">
-      <c r="K642" s="9"/>
+      <c r="K642" s="10"/>
     </row>
     <row r="643">
-      <c r="K643" s="9"/>
+      <c r="K643" s="10"/>
     </row>
     <row r="644">
-      <c r="K644" s="9"/>
+      <c r="K644" s="10"/>
     </row>
     <row r="645">
-      <c r="K645" s="9"/>
+      <c r="K645" s="10"/>
     </row>
     <row r="646">
-      <c r="K646" s="9"/>
+      <c r="K646" s="10"/>
     </row>
     <row r="647">
-      <c r="K647" s="9"/>
+      <c r="K647" s="10"/>
     </row>
     <row r="648">
-      <c r="K648" s="9"/>
+      <c r="K648" s="10"/>
     </row>
     <row r="649">
-      <c r="K649" s="9"/>
+      <c r="K649" s="10"/>
     </row>
     <row r="650">
-      <c r="K650" s="9"/>
+      <c r="K650" s="10"/>
     </row>
     <row r="651">
-      <c r="K651" s="9"/>
+      <c r="K651" s="10"/>
     </row>
     <row r="652">
-      <c r="K652" s="9"/>
+      <c r="K652" s="10"/>
     </row>
     <row r="653">
-      <c r="K653" s="9"/>
+      <c r="K653" s="10"/>
     </row>
     <row r="654">
-      <c r="K654" s="9"/>
+      <c r="K654" s="10"/>
     </row>
     <row r="655">
-      <c r="K655" s="9"/>
+      <c r="K655" s="10"/>
     </row>
     <row r="656">
-      <c r="K656" s="9"/>
+      <c r="K656" s="10"/>
     </row>
     <row r="657">
-      <c r="K657" s="9"/>
+      <c r="K657" s="10"/>
     </row>
     <row r="658">
-      <c r="K658" s="9"/>
+      <c r="K658" s="10"/>
     </row>
     <row r="659">
-      <c r="K659" s="9"/>
+      <c r="K659" s="10"/>
     </row>
     <row r="660">
-      <c r="K660" s="9"/>
+      <c r="K660" s="10"/>
     </row>
     <row r="661">
-      <c r="K661" s="9"/>
+      <c r="K661" s="10"/>
     </row>
     <row r="662">
-      <c r="K662" s="9"/>
+      <c r="K662" s="10"/>
     </row>
     <row r="663">
-      <c r="K663" s="9"/>
+      <c r="K663" s="10"/>
     </row>
     <row r="664">
-      <c r="K664" s="9"/>
+      <c r="K664" s="10"/>
     </row>
     <row r="665">
-      <c r="K665" s="9"/>
+      <c r="K665" s="10"/>
     </row>
     <row r="666">
-      <c r="K666" s="9"/>
+      <c r="K666" s="10"/>
     </row>
     <row r="667">
-      <c r="K667" s="9"/>
+      <c r="K667" s="10"/>
     </row>
     <row r="668">
-      <c r="K668" s="9"/>
+      <c r="K668" s="10"/>
     </row>
     <row r="669">
-      <c r="K669" s="9"/>
+      <c r="K669" s="10"/>
     </row>
     <row r="670">
-      <c r="K670" s="9"/>
+      <c r="K670" s="10"/>
     </row>
     <row r="671">
-      <c r="K671" s="9"/>
+      <c r="K671" s="10"/>
     </row>
     <row r="672">
-      <c r="K672" s="9"/>
+      <c r="K672" s="10"/>
     </row>
     <row r="673">
-      <c r="K673" s="9"/>
+      <c r="K673" s="10"/>
     </row>
     <row r="674">
-      <c r="K674" s="9"/>
+      <c r="K674" s="10"/>
     </row>
     <row r="675">
-      <c r="K675" s="9"/>
+      <c r="K675" s="10"/>
     </row>
     <row r="676">
-      <c r="K676" s="9"/>
+      <c r="K676" s="10"/>
     </row>
     <row r="677">
-      <c r="K677" s="9"/>
+      <c r="K677" s="10"/>
     </row>
     <row r="678">
-      <c r="K678" s="9"/>
+      <c r="K678" s="10"/>
     </row>
     <row r="679">
-      <c r="K679" s="9"/>
+      <c r="K679" s="10"/>
     </row>
     <row r="680">
-      <c r="K680" s="9"/>
+      <c r="K680" s="10"/>
     </row>
     <row r="681">
-      <c r="K681" s="9"/>
+      <c r="K681" s="10"/>
     </row>
     <row r="682">
-      <c r="K682" s="9"/>
+      <c r="K682" s="10"/>
     </row>
     <row r="683">
-      <c r="K683" s="9"/>
+      <c r="K683" s="10"/>
     </row>
     <row r="684">
-      <c r="K684" s="9"/>
+      <c r="K684" s="10"/>
     </row>
     <row r="685">
-      <c r="K685" s="9"/>
+      <c r="K685" s="10"/>
     </row>
     <row r="686">
-      <c r="K686" s="9"/>
+      <c r="K686" s="10"/>
     </row>
     <row r="687">
-      <c r="K687" s="9"/>
+      <c r="K687" s="10"/>
     </row>
     <row r="688">
-      <c r="K688" s="9"/>
+      <c r="K688" s="10"/>
     </row>
     <row r="689">
-      <c r="K689" s="9"/>
+      <c r="K689" s="10"/>
     </row>
     <row r="690">
-      <c r="K690" s="9"/>
+      <c r="K690" s="10"/>
     </row>
     <row r="691">
-      <c r="K691" s="9"/>
+      <c r="K691" s="10"/>
     </row>
     <row r="692">
-      <c r="K692" s="9"/>
+      <c r="K692" s="10"/>
     </row>
     <row r="693">
-      <c r="K693" s="9"/>
+      <c r="K693" s="10"/>
     </row>
     <row r="694">
-      <c r="K694" s="9"/>
+      <c r="K694" s="10"/>
     </row>
     <row r="695">
-      <c r="K695" s="9"/>
+      <c r="K695" s="10"/>
     </row>
     <row r="696">
-      <c r="K696" s="9"/>
+      <c r="K696" s="10"/>
     </row>
     <row r="697">
-      <c r="K697" s="9"/>
+      <c r="K697" s="10"/>
     </row>
     <row r="698">
-      <c r="K698" s="9"/>
+      <c r="K698" s="10"/>
     </row>
     <row r="699">
-      <c r="K699" s="9"/>
+      <c r="K699" s="10"/>
     </row>
     <row r="700">
-      <c r="K700" s="9"/>
+      <c r="K700" s="10"/>
     </row>
     <row r="701">
-      <c r="K701" s="9"/>
+      <c r="K701" s="10"/>
     </row>
     <row r="702">
-      <c r="K702" s="9"/>
+      <c r="K702" s="10"/>
     </row>
     <row r="703">
-      <c r="K703" s="9"/>
+      <c r="K703" s="10"/>
     </row>
     <row r="704">
-      <c r="K704" s="9"/>
+      <c r="K704" s="10"/>
     </row>
     <row r="705">
-      <c r="K705" s="9"/>
+      <c r="K705" s="10"/>
     </row>
     <row r="706">
-      <c r="K706" s="9"/>
+      <c r="K706" s="10"/>
     </row>
     <row r="707">
-      <c r="K707" s="9"/>
+      <c r="K707" s="10"/>
     </row>
     <row r="708">
-      <c r="K708" s="9"/>
+      <c r="K708" s="10"/>
     </row>
     <row r="709">
-      <c r="K709" s="9"/>
+      <c r="K709" s="10"/>
     </row>
     <row r="710">
-      <c r="K710" s="9"/>
+      <c r="K710" s="10"/>
     </row>
     <row r="711">
-      <c r="K711" s="9"/>
+      <c r="K711" s="10"/>
     </row>
     <row r="712">
-      <c r="K712" s="9"/>
+      <c r="K712" s="10"/>
     </row>
     <row r="713">
-      <c r="K713" s="9"/>
+      <c r="K713" s="10"/>
     </row>
     <row r="714">
-      <c r="K714" s="9"/>
+      <c r="K714" s="10"/>
     </row>
     <row r="715">
-      <c r="K715" s="9"/>
+      <c r="K715" s="10"/>
     </row>
     <row r="716">
-      <c r="K716" s="9"/>
+      <c r="K716" s="10"/>
     </row>
     <row r="717">
-      <c r="K717" s="9"/>
+      <c r="K717" s="10"/>
     </row>
     <row r="718">
-      <c r="K718" s="9"/>
+      <c r="K718" s="10"/>
     </row>
     <row r="719">
-      <c r="K719" s="9"/>
+      <c r="K719" s="10"/>
     </row>
     <row r="720">
-      <c r="K720" s="9"/>
+      <c r="K720" s="10"/>
     </row>
     <row r="721">
-      <c r="K721" s="9"/>
+      <c r="K721" s="10"/>
     </row>
     <row r="722">
-      <c r="K722" s="9"/>
+      <c r="K722" s="10"/>
     </row>
     <row r="723">
-      <c r="K723" s="9"/>
+      <c r="K723" s="10"/>
     </row>
     <row r="724">
-      <c r="K724" s="9"/>
+      <c r="K724" s="10"/>
     </row>
     <row r="725">
-      <c r="K725" s="9"/>
+      <c r="K725" s="10"/>
     </row>
     <row r="726">
-      <c r="K726" s="9"/>
+      <c r="K726" s="10"/>
     </row>
     <row r="727">
-      <c r="K727" s="9"/>
+      <c r="K727" s="10"/>
     </row>
     <row r="728">
-      <c r="K728" s="9"/>
+      <c r="K728" s="10"/>
     </row>
     <row r="729">
-      <c r="K729" s="9"/>
+      <c r="K729" s="10"/>
     </row>
     <row r="730">
-      <c r="K730" s="9"/>
+      <c r="K730" s="10"/>
     </row>
     <row r="731">
-      <c r="K731" s="9"/>
+      <c r="K731" s="10"/>
     </row>
     <row r="732">
-      <c r="K732" s="9"/>
+      <c r="K732" s="10"/>
     </row>
     <row r="733">
-      <c r="K733" s="9"/>
+      <c r="K733" s="10"/>
     </row>
     <row r="734">
-      <c r="K734" s="9"/>
+      <c r="K734" s="10"/>
     </row>
     <row r="735">
-      <c r="K735" s="9"/>
+      <c r="K735" s="10"/>
     </row>
     <row r="736">
-      <c r="K736" s="9"/>
+      <c r="K736" s="10"/>
     </row>
     <row r="737">
-      <c r="K737" s="9"/>
+      <c r="K737" s="10"/>
     </row>
     <row r="738">
-      <c r="K738" s="9"/>
+      <c r="K738" s="10"/>
     </row>
     <row r="739">
-      <c r="K739" s="9"/>
+      <c r="K739" s="10"/>
     </row>
     <row r="740">
-      <c r="K740" s="9"/>
+      <c r="K740" s="10"/>
     </row>
     <row r="741">
-      <c r="K741" s="9"/>
+      <c r="K741" s="10"/>
     </row>
     <row r="742">
-      <c r="K742" s="9"/>
+      <c r="K742" s="10"/>
     </row>
     <row r="743">
-      <c r="K743" s="9"/>
+      <c r="K743" s="10"/>
     </row>
     <row r="744">
-      <c r="K744" s="9"/>
+      <c r="K744" s="10"/>
     </row>
     <row r="745">
-      <c r="K745" s="9"/>
+      <c r="K745" s="10"/>
     </row>
     <row r="746">
-      <c r="K746" s="9"/>
+      <c r="K746" s="10"/>
     </row>
     <row r="747">
-      <c r="K747" s="9"/>
+      <c r="K747" s="10"/>
     </row>
     <row r="748">
-      <c r="K748" s="9"/>
+      <c r="K748" s="10"/>
     </row>
     <row r="749">
-      <c r="K749" s="9"/>
+      <c r="K749" s="10"/>
     </row>
     <row r="750">
-      <c r="K750" s="9"/>
+      <c r="K750" s="10"/>
     </row>
     <row r="751">
-      <c r="K751" s="9"/>
+      <c r="K751" s="10"/>
     </row>
     <row r="752">
-      <c r="K752" s="9"/>
+      <c r="K752" s="10"/>
     </row>
     <row r="753">
-      <c r="K753" s="9"/>
+      <c r="K753" s="10"/>
     </row>
     <row r="754">
-      <c r="K754" s="9"/>
+      <c r="K754" s="10"/>
     </row>
     <row r="755">
-      <c r="K755" s="9"/>
+      <c r="K755" s="10"/>
     </row>
     <row r="756">
-      <c r="K756" s="9"/>
+      <c r="K756" s="10"/>
     </row>
     <row r="757">
-      <c r="K757" s="9"/>
+      <c r="K757" s="10"/>
     </row>
     <row r="758">
-      <c r="K758" s="9"/>
+      <c r="K758" s="10"/>
     </row>
     <row r="759">
-      <c r="K759" s="9"/>
+      <c r="K759" s="10"/>
     </row>
     <row r="760">
-      <c r="K760" s="9"/>
+      <c r="K760" s="10"/>
     </row>
     <row r="761">
-      <c r="K761" s="9"/>
+      <c r="K761" s="10"/>
     </row>
     <row r="762">
-      <c r="K762" s="9"/>
+      <c r="K762" s="10"/>
     </row>
     <row r="763">
-      <c r="K763" s="9"/>
+      <c r="K763" s="10"/>
     </row>
     <row r="764">
-      <c r="K764" s="9"/>
+      <c r="K764" s="10"/>
     </row>
     <row r="765">
-      <c r="K765" s="9"/>
+      <c r="K765" s="10"/>
     </row>
     <row r="766">
-      <c r="K766" s="9"/>
+      <c r="K766" s="10"/>
     </row>
     <row r="767">
-      <c r="K767" s="9"/>
+      <c r="K767" s="10"/>
     </row>
     <row r="768">
-      <c r="K768" s="9"/>
+      <c r="K768" s="10"/>
     </row>
     <row r="769">
-      <c r="K769" s="9"/>
+      <c r="K769" s="10"/>
     </row>
     <row r="770">
-      <c r="K770" s="9"/>
+      <c r="K770" s="10"/>
     </row>
     <row r="771">
-      <c r="K771" s="9"/>
+      <c r="K771" s="10"/>
     </row>
     <row r="772">
-      <c r="K772" s="9"/>
+      <c r="K772" s="10"/>
     </row>
     <row r="773">
-      <c r="K773" s="9"/>
+      <c r="K773" s="10"/>
     </row>
     <row r="774">
-      <c r="K774" s="9"/>
+      <c r="K774" s="10"/>
     </row>
     <row r="775">
-      <c r="K775" s="9"/>
+      <c r="K775" s="10"/>
     </row>
     <row r="776">
-      <c r="K776" s="9"/>
+      <c r="K776" s="10"/>
     </row>
     <row r="777">
-      <c r="K777" s="9"/>
+      <c r="K777" s="10"/>
     </row>
     <row r="778">
-      <c r="K778" s="9"/>
+      <c r="K778" s="10"/>
     </row>
     <row r="779">
-      <c r="K779" s="9"/>
+      <c r="K779" s="10"/>
     </row>
     <row r="780">
-      <c r="K780" s="9"/>
+      <c r="K780" s="10"/>
     </row>
     <row r="781">
-      <c r="K781" s="9"/>
+      <c r="K781" s="10"/>
     </row>
     <row r="782">
-      <c r="K782" s="9"/>
+      <c r="K782" s="10"/>
     </row>
     <row r="783">
-      <c r="K783" s="9"/>
+      <c r="K783" s="10"/>
     </row>
     <row r="784">
-      <c r="K784" s="9"/>
+      <c r="K784" s="10"/>
     </row>
     <row r="785">
-      <c r="K785" s="9"/>
+      <c r="K785" s="10"/>
     </row>
     <row r="786">
-      <c r="K786" s="9"/>
+      <c r="K786" s="10"/>
     </row>
     <row r="787">
-      <c r="K787" s="9"/>
+      <c r="K787" s="10"/>
     </row>
     <row r="788">
-      <c r="K788" s="9"/>
+      <c r="K788" s="10"/>
     </row>
     <row r="789">
-      <c r="K789" s="9"/>
+      <c r="K789" s="10"/>
     </row>
     <row r="790">
-      <c r="K790" s="9"/>
+      <c r="K790" s="10"/>
     </row>
     <row r="791">
-      <c r="K791" s="9"/>
+      <c r="K791" s="10"/>
     </row>
     <row r="792">
-      <c r="K792" s="9"/>
+      <c r="K792" s="10"/>
     </row>
     <row r="793">
-      <c r="K793" s="9"/>
+      <c r="K793" s="10"/>
     </row>
     <row r="794">
-      <c r="K794" s="9"/>
+      <c r="K794" s="10"/>
     </row>
     <row r="795">
-      <c r="K795" s="9"/>
+      <c r="K795" s="10"/>
     </row>
     <row r="796">
-      <c r="K796" s="9"/>
+      <c r="K796" s="10"/>
     </row>
     <row r="797">
-      <c r="K797" s="9"/>
+      <c r="K797" s="10"/>
     </row>
     <row r="798">
-      <c r="K798" s="9"/>
+      <c r="K798" s="10"/>
     </row>
     <row r="799">
-      <c r="K799" s="9"/>
+      <c r="K799" s="10"/>
     </row>
     <row r="800">
-      <c r="K800" s="9"/>
+      <c r="K800" s="10"/>
     </row>
     <row r="801">
-      <c r="K801" s="9"/>
+      <c r="K801" s="10"/>
     </row>
     <row r="802">
-      <c r="K802" s="9"/>
+      <c r="K802" s="10"/>
     </row>
     <row r="803">
-      <c r="K803" s="9"/>
+      <c r="K803" s="10"/>
     </row>
     <row r="804">
-      <c r="K804" s="9"/>
+      <c r="K804" s="10"/>
     </row>
     <row r="805">
-      <c r="K805" s="9"/>
+      <c r="K805" s="10"/>
     </row>
     <row r="806">
-      <c r="K806" s="9"/>
+      <c r="K806" s="10"/>
     </row>
     <row r="807">
-      <c r="K807" s="9"/>
+      <c r="K807" s="10"/>
     </row>
     <row r="808">
-      <c r="K808" s="9"/>
+      <c r="K808" s="10"/>
     </row>
     <row r="809">
-      <c r="K809" s="9"/>
+      <c r="K809" s="10"/>
     </row>
     <row r="810">
-      <c r="K810" s="9"/>
+      <c r="K810" s="10"/>
     </row>
     <row r="811">
-      <c r="K811" s="9"/>
+      <c r="K811" s="10"/>
     </row>
     <row r="812">
-      <c r="K812" s="9"/>
+      <c r="K812" s="10"/>
     </row>
     <row r="813">
-      <c r="K813" s="9"/>
+      <c r="K813" s="10"/>
     </row>
     <row r="814">
-      <c r="K814" s="9"/>
+      <c r="K814" s="10"/>
     </row>
     <row r="815">
-      <c r="K815" s="9"/>
+      <c r="K815" s="10"/>
     </row>
     <row r="816">
-      <c r="K816" s="9"/>
+      <c r="K816" s="10"/>
     </row>
     <row r="817">
-      <c r="K817" s="9"/>
+      <c r="K817" s="10"/>
     </row>
     <row r="818">
-      <c r="K818" s="9"/>
+      <c r="K818" s="10"/>
     </row>
     <row r="819">
-      <c r="K819" s="9"/>
+      <c r="K819" s="10"/>
     </row>
     <row r="820">
-      <c r="K820" s="9"/>
+      <c r="K820" s="10"/>
     </row>
     <row r="821">
-      <c r="K821" s="9"/>
+      <c r="K821" s="10"/>
     </row>
     <row r="822">
-      <c r="K822" s="9"/>
+      <c r="K822" s="10"/>
     </row>
     <row r="823">
-      <c r="K823" s="9"/>
+      <c r="K823" s="10"/>
     </row>
     <row r="824">
-      <c r="K824" s="9"/>
+      <c r="K824" s="10"/>
     </row>
     <row r="825">
-      <c r="K825" s="9"/>
+      <c r="K825" s="10"/>
     </row>
     <row r="826">
-      <c r="K826" s="9"/>
+      <c r="K826" s="10"/>
     </row>
     <row r="827">
-      <c r="K827" s="9"/>
+      <c r="K827" s="10"/>
     </row>
     <row r="828">
-      <c r="K828" s="9"/>
+      <c r="K828" s="10"/>
     </row>
     <row r="829">
-      <c r="K829" s="9"/>
+      <c r="K829" s="10"/>
     </row>
     <row r="830">
-      <c r="K830" s="9"/>
+      <c r="K830" s="10"/>
     </row>
     <row r="831">
-      <c r="K831" s="9"/>
+      <c r="K831" s="10"/>
     </row>
     <row r="832">
-      <c r="K832" s="9"/>
+      <c r="K832" s="10"/>
     </row>
     <row r="833">
-      <c r="K833" s="9"/>
+      <c r="K833" s="10"/>
     </row>
     <row r="834">
-      <c r="K834" s="9"/>
+      <c r="K834" s="10"/>
     </row>
     <row r="835">
-      <c r="K835" s="9"/>
+      <c r="K835" s="10"/>
     </row>
     <row r="836">
-      <c r="K836" s="9"/>
+      <c r="K836" s="10"/>
     </row>
     <row r="837">
-      <c r="K837" s="9"/>
+      <c r="K837" s="10"/>
     </row>
     <row r="838">
-      <c r="K838" s="9"/>
+      <c r="K838" s="10"/>
     </row>
     <row r="839">
-      <c r="K839" s="9"/>
+      <c r="K839" s="10"/>
     </row>
     <row r="840">
-      <c r="K840" s="9"/>
+      <c r="K840" s="10"/>
     </row>
     <row r="841">
-      <c r="K841" s="9"/>
+      <c r="K841" s="10"/>
     </row>
     <row r="842">
-      <c r="K842" s="9"/>
+      <c r="K842" s="10"/>
     </row>
     <row r="843">
-      <c r="K843" s="9"/>
+      <c r="K843" s="10"/>
     </row>
     <row r="844">
-      <c r="K844" s="9"/>
+      <c r="K844" s="10"/>
     </row>
     <row r="845">
-      <c r="K845" s="9"/>
+      <c r="K845" s="10"/>
     </row>
     <row r="846">
-      <c r="K846" s="9"/>
+      <c r="K846" s="10"/>
     </row>
     <row r="847">
-      <c r="K847" s="9"/>
+      <c r="K847" s="10"/>
     </row>
     <row r="848">
-      <c r="K848" s="9"/>
+      <c r="K848" s="10"/>
     </row>
     <row r="849">
-      <c r="K849" s="9"/>
+      <c r="K849" s="10"/>
     </row>
     <row r="850">
-      <c r="K850" s="9"/>
+      <c r="K850" s="10"/>
     </row>
     <row r="851">
-      <c r="K851" s="9"/>
+      <c r="K851" s="10"/>
     </row>
     <row r="852">
-      <c r="K852" s="9"/>
+      <c r="K852" s="10"/>
     </row>
     <row r="853">
-      <c r="K853" s="9"/>
+      <c r="K853" s="10"/>
     </row>
     <row r="854">
-      <c r="K854" s="9"/>
+      <c r="K854" s="10"/>
     </row>
     <row r="855">
-      <c r="K855" s="9"/>
+      <c r="K855" s="10"/>
     </row>
     <row r="856">
-      <c r="K856" s="9"/>
+      <c r="K856" s="10"/>
     </row>
     <row r="857">
-      <c r="K857" s="9"/>
+      <c r="K857" s="10"/>
     </row>
     <row r="858">
-      <c r="K858" s="9"/>
+      <c r="K858" s="10"/>
     </row>
     <row r="859">
-      <c r="K859" s="9"/>
+      <c r="K859" s="10"/>
     </row>
     <row r="860">
-      <c r="K860" s="9"/>
+      <c r="K860" s="10"/>
     </row>
     <row r="861">
-      <c r="K861" s="9"/>
+      <c r="K861" s="10"/>
     </row>
     <row r="862">
-      <c r="K862" s="9"/>
+      <c r="K862" s="10"/>
     </row>
     <row r="863">
-      <c r="K863" s="9"/>
+      <c r="K863" s="10"/>
     </row>
     <row r="864">
-      <c r="K864" s="9"/>
+      <c r="K864" s="10"/>
     </row>
     <row r="865">
-      <c r="K865" s="9"/>
+      <c r="K865" s="10"/>
     </row>
     <row r="866">
-      <c r="K866" s="9"/>
+      <c r="K866" s="10"/>
     </row>
     <row r="867">
-      <c r="K867" s="9"/>
+      <c r="K867" s="10"/>
     </row>
     <row r="868">
-      <c r="K868" s="9"/>
+      <c r="K868" s="10"/>
     </row>
     <row r="869">
-      <c r="K869" s="9"/>
+      <c r="K869" s="10"/>
     </row>
     <row r="870">
-      <c r="K870" s="9"/>
+      <c r="K870" s="10"/>
     </row>
     <row r="871">
-      <c r="K871" s="9"/>
+      <c r="K871" s="10"/>
     </row>
     <row r="872">
-      <c r="K872" s="9"/>
+      <c r="K872" s="10"/>
     </row>
     <row r="873">
-      <c r="K873" s="9"/>
+      <c r="K873" s="10"/>
     </row>
     <row r="874">
-      <c r="K874" s="9"/>
+      <c r="K874" s="10"/>
     </row>
     <row r="875">
-      <c r="K875" s="9"/>
+      <c r="K875" s="10"/>
     </row>
     <row r="876">
-      <c r="K876" s="9"/>
+      <c r="K876" s="10"/>
     </row>
     <row r="877">
-      <c r="K877" s="9"/>
+      <c r="K877" s="10"/>
     </row>
     <row r="878">
-      <c r="K878" s="9"/>
+      <c r="K878" s="10"/>
     </row>
     <row r="879">
-      <c r="K879" s="9"/>
+      <c r="K879" s="10"/>
     </row>
     <row r="880">
-      <c r="K880" s="9"/>
+      <c r="K880" s="10"/>
     </row>
     <row r="881">
-      <c r="K881" s="9"/>
+      <c r="K881" s="10"/>
     </row>
     <row r="882">
-      <c r="K882" s="9"/>
+      <c r="K882" s="10"/>
     </row>
     <row r="883">
-      <c r="K883" s="9"/>
+      <c r="K883" s="10"/>
     </row>
     <row r="884">
-      <c r="K884" s="9"/>
+      <c r="K884" s="10"/>
     </row>
     <row r="885">
-      <c r="K885" s="9"/>
+      <c r="K885" s="10"/>
     </row>
     <row r="886">
-      <c r="K886" s="9"/>
+      <c r="K886" s="10"/>
     </row>
     <row r="887">
-      <c r="K887" s="9"/>
+      <c r="K887" s="10"/>
     </row>
     <row r="888">
-      <c r="K888" s="9"/>
+      <c r="K888" s="10"/>
     </row>
     <row r="889">
-      <c r="K889" s="9"/>
+      <c r="K889" s="10"/>
     </row>
     <row r="890">
-      <c r="K890" s="9"/>
+      <c r="K890" s="10"/>
     </row>
     <row r="891">
-      <c r="K891" s="9"/>
+      <c r="K891" s="10"/>
     </row>
     <row r="892">
-      <c r="K892" s="9"/>
+      <c r="K892" s="10"/>
     </row>
     <row r="893">
-      <c r="K893" s="9"/>
+      <c r="K893" s="10"/>
     </row>
     <row r="894">
-      <c r="K894" s="9"/>
+      <c r="K894" s="10"/>
     </row>
     <row r="895">
-      <c r="K895" s="9"/>
+      <c r="K895" s="10"/>
     </row>
     <row r="896">
-      <c r="K896" s="9"/>
+      <c r="K896" s="10"/>
     </row>
     <row r="897">
-      <c r="K897" s="9"/>
+      <c r="K897" s="10"/>
     </row>
     <row r="898">
-      <c r="K898" s="9"/>
+      <c r="K898" s="10"/>
     </row>
     <row r="899">
-      <c r="K899" s="9"/>
+      <c r="K899" s="10"/>
     </row>
     <row r="900">
-      <c r="K900" s="9"/>
+      <c r="K900" s="10"/>
     </row>
     <row r="901">
-      <c r="K901" s="9"/>
+      <c r="K901" s="10"/>
     </row>
     <row r="902">
-      <c r="K902" s="9"/>
+      <c r="K902" s="10"/>
     </row>
     <row r="903">
-      <c r="K903" s="9"/>
+      <c r="K903" s="10"/>
     </row>
     <row r="904">
-      <c r="K904" s="9"/>
+      <c r="K904" s="10"/>
     </row>
     <row r="905">
-      <c r="K905" s="9"/>
+      <c r="K905" s="10"/>
     </row>
     <row r="906">
-      <c r="K906" s="9"/>
+      <c r="K906" s="10"/>
     </row>
     <row r="907">
-      <c r="K907" s="9"/>
+      <c r="K907" s="10"/>
     </row>
     <row r="908">
-      <c r="K908" s="9"/>
+      <c r="K908" s="10"/>
     </row>
     <row r="909">
-      <c r="K909" s="9"/>
+      <c r="K909" s="10"/>
     </row>
     <row r="910">
-      <c r="K910" s="9"/>
+      <c r="K910" s="10"/>
     </row>
     <row r="911">
-      <c r="K911" s="9"/>
+      <c r="K911" s="10"/>
     </row>
     <row r="912">
-      <c r="K912" s="9"/>
+      <c r="K912" s="10"/>
     </row>
     <row r="913">
-      <c r="K913" s="9"/>
+      <c r="K913" s="10"/>
     </row>
     <row r="914">
-      <c r="K914" s="9"/>
+      <c r="K914" s="10"/>
     </row>
     <row r="915">
-      <c r="K915" s="9"/>
+      <c r="K915" s="10"/>
     </row>
     <row r="916">
-      <c r="K916" s="9"/>
+      <c r="K916" s="10"/>
     </row>
     <row r="917">
-      <c r="K917" s="9"/>
+      <c r="K917" s="10"/>
     </row>
     <row r="918">
-      <c r="K918" s="9"/>
+      <c r="K918" s="10"/>
     </row>
     <row r="919">
-      <c r="K919" s="9"/>
+      <c r="K919" s="10"/>
     </row>
     <row r="920">
-      <c r="K920" s="9"/>
+      <c r="K920" s="10"/>
     </row>
     <row r="921">
-      <c r="K921" s="9"/>
+      <c r="K921" s="10"/>
     </row>
     <row r="922">
-      <c r="K922" s="9"/>
+      <c r="K922" s="10"/>
     </row>
     <row r="923">
-      <c r="K923" s="9"/>
+      <c r="K923" s="10"/>
     </row>
     <row r="924">
-      <c r="K924" s="9"/>
+      <c r="K924" s="10"/>
     </row>
     <row r="925">
-      <c r="K925" s="9"/>
+      <c r="K925" s="10"/>
     </row>
     <row r="926">
-      <c r="K926" s="9"/>
+      <c r="K926" s="10"/>
     </row>
     <row r="927">
-      <c r="K927" s="9"/>
+      <c r="K927" s="10"/>
     </row>
     <row r="928">
-      <c r="K928" s="9"/>
+      <c r="K928" s="10"/>
     </row>
     <row r="929">
-      <c r="K929" s="9"/>
+      <c r="K929" s="10"/>
     </row>
     <row r="930">
-      <c r="K930" s="9"/>
+      <c r="K930" s="10"/>
     </row>
     <row r="931">
-      <c r="K931" s="9"/>
+      <c r="K931" s="10"/>
     </row>
     <row r="932">
-      <c r="K932" s="9"/>
+      <c r="K932" s="10"/>
     </row>
     <row r="933">
-      <c r="K933" s="9"/>
+      <c r="K933" s="10"/>
     </row>
     <row r="934">
-      <c r="K934" s="9"/>
+      <c r="K934" s="10"/>
     </row>
     <row r="935">
-      <c r="K935" s="9"/>
+      <c r="K935" s="10"/>
     </row>
     <row r="936">
-      <c r="K936" s="9"/>
+      <c r="K936" s="10"/>
     </row>
     <row r="937">
-      <c r="K937" s="9"/>
+      <c r="K937" s="10"/>
     </row>
     <row r="938">
-      <c r="K938" s="9"/>
+      <c r="K938" s="10"/>
     </row>
     <row r="939">
-      <c r="K939" s="9"/>
+      <c r="K939" s="10"/>
     </row>
     <row r="940">
-      <c r="K940" s="9"/>
+      <c r="K940" s="10"/>
     </row>
     <row r="941">
-      <c r="K941" s="9"/>
+      <c r="K941" s="10"/>
     </row>
     <row r="942">
-      <c r="K942" s="9"/>
+      <c r="K942" s="10"/>
     </row>
     <row r="943">
-      <c r="K943" s="9"/>
+      <c r="K943" s="10"/>
     </row>
     <row r="944">
-      <c r="K944" s="9"/>
+      <c r="K944" s="10"/>
     </row>
     <row r="945">
-      <c r="K945" s="9"/>
+      <c r="K945" s="10"/>
     </row>
     <row r="946">
-      <c r="K946" s="9"/>
+      <c r="K946" s="10"/>
     </row>
     <row r="947">
-      <c r="K947" s="9"/>
+      <c r="K947" s="10"/>
     </row>
     <row r="948">
-      <c r="K948" s="9"/>
+      <c r="K948" s="10"/>
     </row>
     <row r="949">
-      <c r="K949" s="9"/>
+      <c r="K949" s="10"/>
     </row>
     <row r="950">
-      <c r="K950" s="9"/>
+      <c r="K950" s="10"/>
     </row>
     <row r="951">
-      <c r="K951" s="9"/>
+      <c r="K951" s="10"/>
     </row>
     <row r="952">
-      <c r="K952" s="9"/>
+      <c r="K952" s="10"/>
     </row>
     <row r="953">
-      <c r="K953" s="9"/>
+      <c r="K953" s="10"/>
     </row>
     <row r="954">
-      <c r="K954" s="9"/>
+      <c r="K954" s="10"/>
     </row>
     <row r="955">
-      <c r="K955" s="9"/>
+      <c r="K955" s="10"/>
     </row>
     <row r="956">
-      <c r="K956" s="9"/>
+      <c r="K956" s="10"/>
     </row>
     <row r="957">
-      <c r="K957" s="9"/>
+      <c r="K957" s="10"/>
     </row>
     <row r="958">
-      <c r="K958" s="9"/>
+      <c r="K958" s="10"/>
     </row>
     <row r="959">
-      <c r="K959" s="9"/>
+      <c r="K959" s="10"/>
     </row>
     <row r="960">
-      <c r="K960" s="9"/>
+      <c r="K960" s="10"/>
     </row>
     <row r="961">
-      <c r="K961" s="9"/>
+      <c r="K961" s="10"/>
     </row>
     <row r="962">
-      <c r="K962" s="9"/>
+      <c r="K962" s="10"/>
     </row>
     <row r="963">
-      <c r="K963" s="9"/>
+      <c r="K963" s="10"/>
     </row>
     <row r="964">
-      <c r="K964" s="9"/>
+      <c r="K964" s="10"/>
     </row>
     <row r="965">
-      <c r="K965" s="9"/>
+      <c r="K965" s="10"/>
     </row>
     <row r="966">
-      <c r="K966" s="9"/>
+      <c r="K966" s="10"/>
     </row>
     <row r="967">
-      <c r="K967" s="9"/>
+      <c r="K967" s="10"/>
     </row>
     <row r="968">
-      <c r="K968" s="9"/>
+      <c r="K968" s="10"/>
     </row>
     <row r="969">
-      <c r="K969" s="9"/>
+      <c r="K969" s="10"/>
     </row>
     <row r="970">
-      <c r="K970" s="9"/>
+      <c r="K970" s="10"/>
     </row>
     <row r="971">
-      <c r="K971" s="9"/>
+      <c r="K971" s="10"/>
     </row>
     <row r="972">
-      <c r="K972" s="9"/>
+      <c r="K972" s="10"/>
     </row>
     <row r="973">
-      <c r="K973" s="9"/>
+      <c r="K973" s="10"/>
     </row>
     <row r="974">
-      <c r="K974" s="9"/>
+      <c r="K974" s="10"/>
     </row>
     <row r="975">
-      <c r="K975" s="9"/>
+      <c r="K975" s="10"/>
     </row>
     <row r="976">
-      <c r="K976" s="9"/>
+      <c r="K976" s="10"/>
     </row>
     <row r="977">
-      <c r="K977" s="9"/>
+      <c r="K977" s="10"/>
     </row>
     <row r="978">
-      <c r="K978" s="9"/>
+      <c r="K978" s="10"/>
     </row>
     <row r="979">
-      <c r="K979" s="9"/>
+      <c r="K979" s="10"/>
     </row>
     <row r="980">
-      <c r="K980" s="9"/>
+      <c r="K980" s="10"/>
     </row>
     <row r="981">
-      <c r="K981" s="9"/>
+      <c r="K981" s="10"/>
     </row>
     <row r="982">
-      <c r="K982" s="9"/>
+      <c r="K982" s="10"/>
     </row>
     <row r="983">
-      <c r="K983" s="9"/>
+      <c r="K983" s="10"/>
     </row>
     <row r="984">
-      <c r="K984" s="9"/>
+      <c r="K984" s="10"/>
     </row>
     <row r="985">
-      <c r="K985" s="9"/>
+      <c r="K985" s="10"/>
     </row>
     <row r="986">
-      <c r="K986" s="9"/>
+      <c r="K986" s="10"/>
     </row>
     <row r="987">
-      <c r="K987" s="9"/>
+      <c r="K987" s="10"/>
     </row>
     <row r="988">
-      <c r="K988" s="9"/>
+      <c r="K988" s="10"/>
     </row>
     <row r="989">
-      <c r="K989" s="9"/>
+      <c r="K989" s="10"/>
     </row>
     <row r="990">
-      <c r="K990" s="9"/>
+      <c r="K990" s="10"/>
     </row>
     <row r="991">
-      <c r="K991" s="9"/>
+      <c r="K991" s="10"/>
     </row>
     <row r="992">
-      <c r="K992" s="9"/>
+      <c r="K992" s="10"/>
     </row>
     <row r="993">
-      <c r="K993" s="9"/>
+      <c r="K993" s="10"/>
     </row>
     <row r="994">
-      <c r="K994" s="9"/>
+      <c r="K994" s="10"/>
     </row>
     <row r="995">
-      <c r="K995" s="9"/>
+      <c r="K995" s="10"/>
     </row>
     <row r="996">
-      <c r="K996" s="9"/>
+      <c r="K996" s="10"/>
     </row>
     <row r="997">
-      <c r="K997" s="9"/>
+      <c r="K997" s="10"/>
     </row>
     <row r="998">
-      <c r="K998" s="9"/>
+      <c r="K998" s="10"/>
     </row>
     <row r="999">
-      <c r="K999" s="9"/>
+      <c r="K999" s="10"/>
     </row>
     <row r="1000">
-      <c r="K1000" s="9"/>
+      <c r="K1000" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
